--- a/VPU.xlsx
+++ b/VPU.xlsx
@@ -516,16 +516,16 @@
         <v>45559</v>
       </c>
       <c r="B2" t="n">
-        <v>168.5208838476445</v>
+        <v>168.5208685509611</v>
       </c>
       <c r="C2" t="n">
-        <v>170.2393000318979</v>
+        <v>170.2392845792335</v>
       </c>
       <c r="D2" t="n">
-        <v>167.8801164821181</v>
+        <v>167.8801012435973</v>
       </c>
       <c r="E2" t="n">
-        <v>168.1034088134766</v>
+        <v>168.1033935546875</v>
       </c>
       <c r="F2" t="n">
         <v>210000</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005082317273806147</v>
+        <v>0.005082408505391323</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005082317273806147</v>
+        <v>0.005082408505391323</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -588,16 +588,16 @@
         <v>45561</v>
       </c>
       <c r="B4" t="n">
-        <v>168.6470781156241</v>
+        <v>168.647093445011</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3072518159189</v>
+        <v>169.3072672053131</v>
       </c>
       <c r="D4" t="n">
-        <v>167.4335104482658</v>
+        <v>167.433525667344</v>
       </c>
       <c r="E4" t="n">
-        <v>167.8703918457031</v>
+        <v>167.8704071044922</v>
       </c>
       <c r="F4" t="n">
         <v>138200</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.006435761237249871</v>
+        <v>-0.006435670925986625</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.001386152543949914</v>
+        <v>-0.001385971129247432</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.010093392260766</v>
+        <v>0.01009330044707313</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008693248735456738</v>
+        <v>0.008693340294807284</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -664,16 +664,16 @@
         <v>45565</v>
       </c>
       <c r="B6" t="n">
-        <v>169.7799959649316</v>
+        <v>169.7800111798862</v>
       </c>
       <c r="C6" t="n">
-        <v>170.3571758791061</v>
+        <v>170.357191145785</v>
       </c>
       <c r="D6" t="n">
-        <v>168.4788856132223</v>
+        <v>168.478900711577</v>
       </c>
       <c r="E6" t="n">
-        <v>170.2691345214844</v>
+        <v>170.2691497802734</v>
       </c>
       <c r="F6" t="n">
         <v>150700</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004153934494339984</v>
+        <v>0.004154024482305951</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01288329441558678</v>
+        <v>0.01288347712553084</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007354223471823573</v>
+        <v>0.007354133197069679</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02033226451359593</v>
+        <v>0.02033235712942316</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -767,7 +767,7 @@
         <v>-0.000342145796810911</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01998316211794204</v>
+        <v>0.01998325470208107</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -778,16 +778,16 @@
         <v>45568</v>
       </c>
       <c r="B9" t="n">
-        <v>172.0104781192027</v>
+        <v>172.0104628002983</v>
       </c>
       <c r="C9" t="n">
-        <v>172.5191864317692</v>
+        <v>172.5191710675603</v>
       </c>
       <c r="D9" t="n">
-        <v>170.924589853771</v>
+        <v>170.9245746315736</v>
       </c>
       <c r="E9" t="n">
-        <v>171.3354644775391</v>
+        <v>171.33544921875</v>
       </c>
       <c r="F9" t="n">
         <v>216700</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0007417476018458657</v>
+        <v>-0.0007418365937597038</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01922659205351795</v>
+        <v>0.01922659379872105</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.001484507341538488</v>
+        <v>-0.001484418415765409</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01771354269492331</v>
+        <v>0.01771363507304846</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -854,16 +854,16 @@
         <v>45572</v>
       </c>
       <c r="B11" t="n">
-        <v>170.3963182567445</v>
+        <v>170.3963027151045</v>
       </c>
       <c r="C11" t="n">
-        <v>170.6995967325494</v>
+        <v>170.6995811632478</v>
       </c>
       <c r="D11" t="n">
-        <v>166.8158349922342</v>
+        <v>166.8158197771657</v>
       </c>
       <c r="E11" t="n">
-        <v>167.2951812744141</v>
+        <v>167.295166015625</v>
       </c>
       <c r="F11" t="n">
         <v>309000</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02212947017705713</v>
+        <v>-0.02212955936743333</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.004807918796931099</v>
+        <v>-0.004807919233346891</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002924153425203357</v>
+        <v>0.0002925065779777469</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.004516909363632582</v>
+        <v>-0.004516819003371308</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -957,7 +957,7 @@
         <v>-0.008125876545069577</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01260608206084801</v>
+        <v>-0.01260599243484306</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>-0.003064824921910847</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01563227154829117</v>
+        <v>-0.01563218219697415</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1006,16 +1006,16 @@
         <v>45576</v>
       </c>
       <c r="B15" t="n">
-        <v>164.9570831999906</v>
+        <v>164.9570982719655</v>
       </c>
       <c r="C15" t="n">
-        <v>167.0016937255859</v>
+        <v>167.001708984375</v>
       </c>
       <c r="D15" t="n">
-        <v>164.6146951643803</v>
+        <v>164.6147102050715</v>
       </c>
       <c r="E15" t="n">
-        <v>167.0016937255859</v>
+        <v>167.001708984375</v>
       </c>
       <c r="F15" t="n">
         <v>94600</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009222648640010656</v>
+        <v>0.009222740851743128</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.006553793856215684</v>
+        <v>-0.006553612910580986</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01241860957659302</v>
+        <v>0.01241851707285702</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00578342671323151</v>
+        <v>0.005783518008457111</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
         <v>0.005149658771142818</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01096286815847547</v>
+        <v>0.01096295992384033</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1120,16 +1120,16 @@
         <v>45581</v>
       </c>
       <c r="B18" t="n">
-        <v>170.8365310274528</v>
+        <v>170.8365460751284</v>
       </c>
       <c r="C18" t="n">
-        <v>173.4974458756611</v>
+        <v>173.4974611577161</v>
       </c>
       <c r="D18" t="n">
-        <v>170.0245592608657</v>
+        <v>170.0245742370209</v>
       </c>
       <c r="E18" t="n">
-        <v>173.2333068847656</v>
+        <v>173.2333221435547</v>
       </c>
       <c r="F18" t="n">
         <v>152300</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01934141831800229</v>
+        <v>0.01934150810394453</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03051632389549597</v>
+        <v>0.03051650820599505</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.009148316333154716</v>
+        <v>-0.009148403609647748</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02108883457802024</v>
+        <v>0.02108892726252165</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
         <v>0.004844363004267827</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02603535955232106</v>
+        <v>0.02603545268581975</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1261,13 +1261,13 @@
         <v>-0.003856806632051346</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02207813957288041</v>
+        <v>0.02207823234718131</v>
       </c>
       <c r="L21" t="n">
         <v>211070</v>
       </c>
       <c r="M21" t="n">
-        <v>169.5732734680176</v>
+        <v>169.573274230957</v>
       </c>
       <c r="N21" t="inlineStr"/>
     </row>
@@ -1303,13 +1303,13 @@
         <v>-0.003131600766461573</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01887739888761031</v>
+        <v>0.01887749137137917</v>
       </c>
       <c r="L22" t="n">
         <v>208930</v>
       </c>
       <c r="M22" t="n">
-        <v>169.7319412231445</v>
+        <v>169.7319427490234</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1345,13 +1345,13 @@
         <v>0.00851044571508397</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02754849968116924</v>
+        <v>0.02754859295201628</v>
       </c>
       <c r="L23" t="n">
         <v>206070</v>
       </c>
       <c r="M23" t="n">
-        <v>169.9207733154297</v>
+        <v>169.9207748413086</v>
       </c>
       <c r="N23" t="inlineStr"/>
     </row>
@@ -1360,16 +1360,16 @@
         <v>45589</v>
       </c>
       <c r="B24" t="n">
-        <v>172.9104972567932</v>
+        <v>172.9104818814388</v>
       </c>
       <c r="C24" t="n">
-        <v>173.0474554694085</v>
+        <v>173.0474400818757</v>
       </c>
       <c r="D24" t="n">
-        <v>171.1104707688988</v>
+        <v>171.1104555536043</v>
       </c>
       <c r="E24" t="n">
-        <v>171.599609375</v>
+        <v>171.5995941162109</v>
       </c>
       <c r="F24" t="n">
         <v>101500</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.006569601112053181</v>
+        <v>-0.006569689448763016</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02079791591497515</v>
+        <v>0.02079791780280815</v>
       </c>
       <c r="L24" t="n">
         <v>204235</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0140244240772146</v>
+        <v>-0.01402433640338641</v>
       </c>
       <c r="K25" t="n">
-        <v>0.006481813045046581</v>
+        <v>0.006481904403665251</v>
       </c>
       <c r="L25" t="n">
         <v>206665</v>
@@ -1444,16 +1444,16 @@
         <v>45593</v>
       </c>
       <c r="B26" t="n">
-        <v>169.8973954200886</v>
+        <v>169.8973802120894</v>
       </c>
       <c r="C26" t="n">
-        <v>171.1985058558723</v>
+        <v>171.1984905314069</v>
       </c>
       <c r="D26" t="n">
-        <v>169.8582709010589</v>
+        <v>169.8582556965618</v>
       </c>
       <c r="E26" t="n">
-        <v>170.4647979736328</v>
+        <v>170.4647827148438</v>
       </c>
       <c r="F26" t="n">
         <v>152500</v>
@@ -1468,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.007516706447573185</v>
+        <v>0.007516616261886266</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01404724137852753</v>
+        <v>0.01404724265360002</v>
       </c>
       <c r="L26" t="n">
         <v>206755</v>
       </c>
       <c r="M26" t="n">
-        <v>170.0984298706055</v>
+        <v>170.0984283447266</v>
       </c>
       <c r="N26" t="inlineStr"/>
     </row>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01991392265785841</v>
+        <v>-0.01991383492755727</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.00614641695769913</v>
+        <v>-0.006146326745348429</v>
       </c>
       <c r="L27" t="n">
         <v>198895</v>
       </c>
       <c r="M27" t="n">
-        <v>169.8758720397949</v>
+        <v>169.875870513916</v>
       </c>
       <c r="N27" t="inlineStr"/>
     </row>
@@ -1555,13 +1555,13 @@
         <v>-0.002283655723282041</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.008416036380718084</v>
+        <v>-0.008415946374381256</v>
       </c>
       <c r="L28" t="n">
         <v>203775</v>
       </c>
       <c r="M28" t="n">
-        <v>169.6371719360351</v>
+        <v>169.6371704101562</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1597,13 +1597,13 @@
         <v>0.009331563669231713</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0008369925091844532</v>
+        <v>0.0008370833554209867</v>
       </c>
       <c r="L29" t="n">
         <v>201030</v>
       </c>
       <c r="M29" t="n">
-        <v>169.4826042175293</v>
+        <v>169.4826034545898</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1612,16 +1612,16 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>168.4886828649123</v>
+        <v>168.4886672386708</v>
       </c>
       <c r="C30" t="n">
-        <v>168.7039050493428</v>
+        <v>168.7038894031409</v>
       </c>
       <c r="D30" t="n">
-        <v>164.4484080622682</v>
+        <v>164.4483928107363</v>
       </c>
       <c r="E30" t="n">
-        <v>164.5266571044922</v>
+        <v>164.5266418457031</v>
       </c>
       <c r="F30" t="n">
         <v>214400</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02209559074939471</v>
+        <v>-0.02209568144373786</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.02127709208415351</v>
+        <v>-0.02127709401548006</v>
       </c>
       <c r="L30" t="n">
         <v>203655</v>
       </c>
       <c r="M30" t="n">
-        <v>169.1548812866211</v>
+        <v>169.1548797607422</v>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.009989316868506015</v>
+        <v>-0.009989225051375339</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.03105386533779053</v>
+        <v>-0.03105377738629544</v>
       </c>
       <c r="L31" t="n">
         <v>199875</v>
       </c>
       <c r="M31" t="n">
-        <v>168.9342796325683</v>
+        <v>168.9342788696289</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1723,13 +1723,13 @@
         <v>0.01531526383386517</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.016214199644635</v>
+        <v>-0.01621411034613951</v>
       </c>
       <c r="L32" t="n">
         <v>206895</v>
       </c>
       <c r="M32" t="n">
-        <v>168.8359619140625</v>
+        <v>168.8359611511231</v>
       </c>
       <c r="N32" t="inlineStr"/>
     </row>
@@ -1765,13 +1765,13 @@
         <v>-0.007630882482656753</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02372135347525317</v>
+        <v>-0.02372126485818404</v>
       </c>
       <c r="L33" t="n">
         <v>213720</v>
       </c>
       <c r="M33" t="n">
-        <v>168.7425361633301</v>
+        <v>168.7425354003906</v>
       </c>
       <c r="N33" t="inlineStr"/>
     </row>
@@ -1780,16 +1780,16 @@
         <v>45603</v>
       </c>
       <c r="B34" t="n">
-        <v>164.8201346481202</v>
+        <v>164.8201193174465</v>
       </c>
       <c r="C34" t="n">
-        <v>165.6810233408687</v>
+        <v>165.6810079301198</v>
       </c>
       <c r="D34" t="n">
-        <v>163.3918583285966</v>
+        <v>163.3918431307734</v>
       </c>
       <c r="E34" t="n">
-        <v>164.0473022460938</v>
+        <v>164.0472869873047</v>
       </c>
       <c r="F34" t="n">
         <v>257900</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0004171822560216087</v>
+        <v>-0.0004172752317862516</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.02412863960351608</v>
+        <v>-0.02412864179367835</v>
       </c>
       <c r="L34" t="n">
         <v>220715</v>
       </c>
       <c r="M34" t="n">
-        <v>168.6711227416992</v>
+        <v>168.6711212158203</v>
       </c>
       <c r="N34" t="inlineStr"/>
     </row>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01854608183570572</v>
+        <v>0.01854617657533897</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.006030049492481426</v>
+        <v>-0.006029959269568064</v>
       </c>
       <c r="L35" t="n">
         <v>229080</v>
       </c>
       <c r="M35" t="n">
-        <v>168.6755249023437</v>
+        <v>168.6755226135254</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1891,13 +1891,13 @@
         <v>0.004566776735775546</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.001490810646443741</v>
+        <v>-0.001490720011502411</v>
       </c>
       <c r="L36" t="n">
         <v>217830</v>
       </c>
       <c r="M36" t="n">
-        <v>168.6143836975098</v>
+        <v>168.6143814086914</v>
       </c>
       <c r="N36" t="inlineStr"/>
     </row>
@@ -1906,16 +1906,16 @@
         <v>45608</v>
       </c>
       <c r="B37" t="n">
-        <v>167.6082152233303</v>
+        <v>167.6082306304995</v>
       </c>
       <c r="C37" t="n">
-        <v>167.657132063179</v>
+        <v>167.6571474748448</v>
       </c>
       <c r="D37" t="n">
-        <v>165.2114393439814</v>
+        <v>165.2114545308301</v>
       </c>
       <c r="E37" t="n">
-        <v>165.9940490722656</v>
+        <v>165.9940643310547</v>
       </c>
       <c r="F37" t="n">
         <v>230900</v>
@@ -1930,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01107368722285673</v>
+        <v>-0.01107359631707971</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0125479890984932</v>
+        <v>-0.01254780869695293</v>
       </c>
       <c r="L37" t="n">
         <v>214035</v>
       </c>
       <c r="M37" t="n">
-        <v>168.4167709350586</v>
+        <v>168.4167694091797</v>
       </c>
       <c r="N37" t="inlineStr"/>
     </row>
@@ -1972,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.002062584236591003</v>
+        <v>-0.00206267597069365</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01458469205056878</v>
+        <v>-0.0145846026041625</v>
       </c>
       <c r="L38" t="n">
         <v>212840</v>
       </c>
       <c r="M38" t="n">
-        <v>168.0376892089844</v>
+        <v>168.037686920166</v>
       </c>
       <c r="N38" t="inlineStr"/>
     </row>
@@ -2017,13 +2017,13 @@
         <v>-0.003838746487243916</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.01836745160243602</v>
+        <v>-0.01836736249939186</v>
       </c>
       <c r="L39" t="n">
         <v>206580</v>
       </c>
       <c r="M39" t="n">
-        <v>167.7060523986816</v>
+        <v>167.7060501098633</v>
       </c>
       <c r="N39" t="inlineStr"/>
     </row>
@@ -2059,13 +2059,13 @@
         <v>0.01440606357738705</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.004225990700588267</v>
+        <v>-0.004225900313920006</v>
       </c>
       <c r="L40" t="n">
         <v>209980</v>
       </c>
       <c r="M40" t="n">
-        <v>167.451700592041</v>
+        <v>167.4516983032227</v>
       </c>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2074,16 +2074,16 @@
         <v>45614</v>
       </c>
       <c r="B41" t="n">
-        <v>167.3440879750646</v>
+        <v>167.3441030985856</v>
       </c>
       <c r="C41" t="n">
-        <v>169.261517769513</v>
+        <v>169.2615330663193</v>
       </c>
       <c r="D41" t="n">
-        <v>167.1190884087575</v>
+        <v>167.1191035119444</v>
       </c>
       <c r="E41" t="n">
-        <v>168.8408508300781</v>
+        <v>168.8408660888672</v>
       </c>
       <c r="F41" t="n">
         <v>243600</v>
@@ -2098,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.008649378483734482</v>
+        <v>0.008649469639210317</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004386835590107996</v>
+        <v>0.004387017528826753</v>
       </c>
       <c r="L41" t="n">
         <v>212930</v>
       </c>
       <c r="M41" t="n">
-        <v>167.3030021667481</v>
+        <v>167.3030006408691</v>
       </c>
       <c r="N41" t="inlineStr"/>
     </row>
@@ -2116,16 +2116,16 @@
         <v>45615</v>
       </c>
       <c r="B42" t="n">
-        <v>168.1169252501578</v>
+        <v>168.1169403533894</v>
       </c>
       <c r="C42" t="n">
-        <v>169.8973818061816</v>
+        <v>169.8973970693652</v>
       </c>
       <c r="D42" t="n">
-        <v>167.3832174267105</v>
+        <v>167.3832324640275</v>
       </c>
       <c r="E42" t="n">
-        <v>169.8484649658203</v>
+        <v>169.8484802246094</v>
       </c>
       <c r="F42" t="n">
         <v>142100</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005967833796077349</v>
+        <v>0.005967833256741439</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01038084929187777</v>
+        <v>0.01038103177467464</v>
       </c>
       <c r="L42" t="n">
         <v>211675</v>
       </c>
       <c r="M42" t="n">
-        <v>167.2315872192383</v>
+        <v>167.2315864562988</v>
       </c>
       <c r="N42" t="inlineStr"/>
     </row>
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0008640586374015768</v>
+        <v>0.0008639687221223546</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01125387759177365</v>
+        <v>0.01125396938355361</v>
       </c>
       <c r="L43" t="n">
         <v>210425</v>
       </c>
       <c r="M43" t="n">
-        <v>167.0946281433106</v>
+        <v>167.0946273803711</v>
       </c>
       <c r="N43" t="inlineStr"/>
     </row>
@@ -2200,16 +2200,16 @@
         <v>45617</v>
       </c>
       <c r="B44" t="n">
-        <v>170.2398072494886</v>
+        <v>170.239792224679</v>
       </c>
       <c r="C44" t="n">
-        <v>173.0278883904902</v>
+        <v>173.0278731196136</v>
       </c>
       <c r="D44" t="n">
-        <v>169.555016175944</v>
+        <v>169.5550012115718</v>
       </c>
       <c r="E44" t="n">
-        <v>172.8909301757812</v>
+        <v>172.8909149169922</v>
       </c>
       <c r="F44" t="n">
         <v>221200</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01703404430217659</v>
+        <v>0.01703395454207213</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02847962094341971</v>
+        <v>0.02847962352852296</v>
       </c>
       <c r="L44" t="n">
         <v>216410</v>
       </c>
       <c r="M44" t="n">
-        <v>167.1591941833496</v>
+        <v>167.1591934204102</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -2266,16 +2266,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.003847728889430191</v>
+        <v>-0.003847640972275079</v>
       </c>
       <c r="K45" t="n">
-        <v>0.02452231019372553</v>
+        <v>0.02452240318988452</v>
       </c>
       <c r="L45" t="n">
         <v>218650</v>
       </c>
       <c r="M45" t="n">
-        <v>167.3108276367188</v>
+        <v>167.3108268737793</v>
       </c>
       <c r="N45" t="inlineStr"/>
     </row>
@@ -2311,7 +2311,7 @@
         <v>0.002726503619257636</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02731567398047896</v>
+        <v>0.02731576723019224</v>
       </c>
       <c r="L46" t="n">
         <v>221710</v>
@@ -2353,7 +2353,7 @@
         <v>0.01353872503182396</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04122421841138357</v>
+        <v>0.04122431292357898</v>
       </c>
       <c r="L47" t="n">
         <v>221555</v>
@@ -2395,7 +2395,7 @@
         <v>0.0003353678868902588</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04157341157729122</v>
+        <v>0.04157350612118282</v>
       </c>
       <c r="L48" t="n">
         <v>216815</v>
@@ -2410,16 +2410,16 @@
         <v>45625</v>
       </c>
       <c r="B49" t="n">
-        <v>175.7964029652838</v>
+        <v>175.796418274336</v>
       </c>
       <c r="C49" t="n">
-        <v>175.7964029652838</v>
+        <v>175.796418274336</v>
       </c>
       <c r="D49" t="n">
-        <v>174.8572652493898</v>
+        <v>174.8572804766581</v>
       </c>
       <c r="E49" t="n">
-        <v>175.2192230224609</v>
+        <v>175.21923828125</v>
       </c>
       <c r="F49" t="n">
         <v>83200</v>
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0007263722902435266</v>
+        <v>0.0007264594374889466</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04232998164171531</v>
+        <v>0.04233016702454306</v>
       </c>
       <c r="L49" t="n">
         <v>212885</v>
       </c>
       <c r="M49" t="n">
-        <v>168.5894348144531</v>
+        <v>168.5894355773926</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2452,16 +2452,16 @@
         <v>45628</v>
       </c>
       <c r="B50" t="n">
-        <v>175.1409654296358</v>
+        <v>175.1409498665924</v>
       </c>
       <c r="C50" t="n">
-        <v>175.1801048768281</v>
+        <v>175.1800893103068</v>
       </c>
       <c r="D50" t="n">
-        <v>171.5506899070042</v>
+        <v>171.5506746629931</v>
       </c>
       <c r="E50" t="n">
-        <v>171.7169952392578</v>
+        <v>171.7169799804688</v>
       </c>
       <c r="F50" t="n">
         <v>254700</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.01998769154885582</v>
+        <v>-0.01998786397621288</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02149621147653624</v>
+        <v>0.02149621342775321</v>
       </c>
       <c r="L50" t="n">
         <v>214900</v>
       </c>
       <c r="M50" t="n">
-        <v>168.9489517211914</v>
+        <v>168.9489524841309</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.007804937866797812</v>
+        <v>-0.007804849700239314</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01352349701479261</v>
+        <v>0.01352358901258599</v>
       </c>
       <c r="L51" t="n">
         <v>212450</v>
       </c>
       <c r="M51" t="n">
-        <v>169.3236320495606</v>
+        <v>169.3236328125</v>
       </c>
       <c r="N51" t="n">
-        <v>169.2523889160156</v>
+        <v>169.2523886108398</v>
       </c>
     </row>
     <row r="52">
@@ -2565,13 +2565,13 @@
         <v>-0.002067113620318306</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01142842878960071</v>
+        <v>0.01142852059722421</v>
       </c>
       <c r="L52" t="n">
         <v>206370</v>
       </c>
       <c r="M52" t="n">
-        <v>169.5559730529785</v>
+        <v>169.555973815918</v>
       </c>
       <c r="N52" t="n">
         <v>169.2908120727539</v>
@@ -2609,13 +2609,13 @@
         <v>0.002531695553962043</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01398905764591807</v>
+        <v>0.01398914968597054</v>
       </c>
       <c r="L53" t="n">
         <v>194670</v>
       </c>
       <c r="M53" t="n">
-        <v>169.8729354858398</v>
+        <v>169.8729362487793</v>
       </c>
       <c r="N53" t="n">
         <v>169.3207571411133</v>
@@ -2653,16 +2653,16 @@
         <v>-0.01142106214875382</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00240822560038767</v>
+        <v>0.002408316589245008</v>
       </c>
       <c r="L54" t="n">
         <v>189530</v>
       </c>
       <c r="M54" t="n">
-        <v>170.0959823608399</v>
+        <v>170.0959838867188</v>
       </c>
       <c r="N54" t="n">
-        <v>169.3335140991211</v>
+        <v>169.3335137939453</v>
       </c>
     </row>
     <row r="55">
@@ -2697,16 +2697,16 @@
         <v>-0.0120174519412396</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0096381670762683</v>
+        <v>-0.009638077180865179</v>
       </c>
       <c r="L55" t="n">
         <v>186680</v>
       </c>
       <c r="M55" t="n">
-        <v>170.0656555175781</v>
+        <v>170.065657043457</v>
       </c>
       <c r="N55" t="n">
-        <v>169.2718826293945</v>
+        <v>169.2718823242188</v>
       </c>
     </row>
     <row r="56">
@@ -2741,16 +2741,16 @@
         <v>-0.006757530239051901</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.01633056710985326</v>
+        <v>-0.0163304778219211</v>
       </c>
       <c r="L56" t="n">
         <v>189255</v>
       </c>
       <c r="M56" t="n">
-        <v>169.9409248352051</v>
+        <v>169.940926361084</v>
       </c>
       <c r="N56" t="n">
-        <v>169.1736636352539</v>
+        <v>169.1736630249023</v>
       </c>
     </row>
     <row r="57">
@@ -2785,16 +2785,16 @@
         <v>-0.005679384370864238</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.02191720391310648</v>
+        <v>-0.02191711513227479</v>
       </c>
       <c r="L57" t="n">
         <v>195165</v>
       </c>
       <c r="M57" t="n">
-        <v>169.862174987793</v>
+        <v>169.8621757507324</v>
       </c>
       <c r="N57" t="n">
-        <v>169.0316180419922</v>
+        <v>169.0316174316406</v>
       </c>
     </row>
     <row r="58">
@@ -2802,16 +2802,16 @@
         <v>45638</v>
       </c>
       <c r="B58" t="n">
-        <v>164.9962358080475</v>
+        <v>164.9962204619088</v>
       </c>
       <c r="C58" t="n">
-        <v>165.5147215288355</v>
+        <v>165.5147061344729</v>
       </c>
       <c r="D58" t="n">
-        <v>164.0277360081269</v>
+        <v>164.0277207520674</v>
       </c>
       <c r="E58" t="n">
-        <v>164.0570831298828</v>
+        <v>164.0570678710938</v>
       </c>
       <c r="F58" t="n">
         <v>145200</v>
@@ -2826,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.002201502742319561</v>
+        <v>-0.002201595546583279</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.02407045587090739</v>
+        <v>-0.02407045805578889</v>
       </c>
       <c r="L58" t="n">
         <v>196005</v>
@@ -2838,7 +2838,7 @@
         <v>169.782445526123</v>
       </c>
       <c r="N58" t="n">
-        <v>168.8835067749023</v>
+        <v>168.883505859375</v>
       </c>
     </row>
     <row r="59">
@@ -2870,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0003577127034979366</v>
+        <v>0.0003578057458004658</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0237213534752535</v>
+        <v>-0.02372126485818482</v>
       </c>
       <c r="L59" t="n">
         <v>194635</v>
@@ -2882,7 +2882,7 @@
         <v>169.7374450683594</v>
       </c>
       <c r="N59" t="n">
-        <v>168.7391128540039</v>
+        <v>168.7391122436524</v>
       </c>
     </row>
     <row r="60">
@@ -2917,7 +2917,7 @@
         <v>-0.006914514641869873</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.03047184647119372</v>
+        <v>-0.03047175846686911</v>
       </c>
       <c r="L60" t="n">
         <v>199795</v>
@@ -2926,7 +2926,7 @@
         <v>169.5168441772461</v>
       </c>
       <c r="N60" t="n">
-        <v>168.5771102905273</v>
+        <v>168.5771096801758</v>
       </c>
     </row>
     <row r="61">
@@ -2934,16 +2934,16 @@
         <v>45643</v>
       </c>
       <c r="B61" t="n">
-        <v>162.0907477177308</v>
+        <v>162.0907324754997</v>
       </c>
       <c r="C61" t="n">
-        <v>162.8635801189286</v>
+        <v>162.863564804024</v>
       </c>
       <c r="D61" t="n">
-        <v>161.6016091296163</v>
+        <v>161.6015939333815</v>
       </c>
       <c r="E61" t="n">
-        <v>162.2668304443359</v>
+        <v>162.2668151855469</v>
       </c>
       <c r="F61" t="n">
         <v>240200</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.004381843031097343</v>
+        <v>-0.004381936654220375</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.03472016665418665</v>
+        <v>-0.03472016980574499</v>
       </c>
       <c r="L61" t="n">
         <v>199625</v>
       </c>
       <c r="M61" t="n">
-        <v>169.188143157959</v>
+        <v>169.1881416320801</v>
       </c>
       <c r="N61" t="n">
-        <v>168.4765432739258</v>
+        <v>168.4765426635742</v>
       </c>
     </row>
     <row r="62">
@@ -3002,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.02475767371657744</v>
+        <v>-0.02475758200949041</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.05861824981335451</v>
+        <v>-0.05861816436388623</v>
       </c>
       <c r="L62" t="n">
         <v>216310</v>
       </c>
       <c r="M62" t="n">
-        <v>168.6081939697266</v>
+        <v>168.6081916809082</v>
       </c>
       <c r="N62" t="n">
-        <v>168.2946508789063</v>
+        <v>168.2946502685547</v>
       </c>
     </row>
     <row r="63">
@@ -3022,16 +3022,16 @@
         <v>45645</v>
       </c>
       <c r="B63" t="n">
-        <v>158.5846550829165</v>
+        <v>158.5846702963098</v>
       </c>
       <c r="C63" t="n">
-        <v>160.6943844363753</v>
+        <v>160.6943998521598</v>
       </c>
       <c r="D63" t="n">
-        <v>158.3381913031062</v>
+        <v>158.3382064928556</v>
       </c>
       <c r="E63" t="n">
-        <v>159.057861328125</v>
+        <v>159.0578765869141</v>
       </c>
       <c r="F63" t="n">
         <v>362800</v>
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.005108263994404449</v>
+        <v>0.005108360416768321</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.05380942331388661</v>
+        <v>-0.05380924665765796</v>
       </c>
       <c r="L63" t="n">
         <v>228890</v>
       </c>
       <c r="M63" t="n">
-        <v>168.0613258361817</v>
+        <v>168.0613243103027</v>
       </c>
       <c r="N63" t="n">
-        <v>168.1561224365234</v>
+        <v>168.1561221313476</v>
       </c>
     </row>
     <row r="64">
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01394577675245312</v>
+        <v>0.01394567948229564</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.04061406076614715</v>
+        <v>-0.0406139736824338</v>
       </c>
       <c r="L64" t="n">
         <v>241265</v>
       </c>
       <c r="M64" t="n">
-        <v>167.4805816650391</v>
+        <v>167.4805809020996</v>
       </c>
       <c r="N64" t="n">
-        <v>168.0721319580078</v>
+        <v>168.072131652832</v>
       </c>
     </row>
     <row r="65">
@@ -3137,16 +3137,16 @@
         <v>0.003851122113325944</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.03691934836034971</v>
+        <v>-0.0369192609412663</v>
       </c>
       <c r="L65" t="n">
         <v>243950</v>
       </c>
       <c r="M65" t="n">
-        <v>166.9641540527344</v>
+        <v>166.9641532897949</v>
       </c>
       <c r="N65" t="n">
-        <v>167.9700408935547</v>
+        <v>167.9700402832031</v>
       </c>
     </row>
     <row r="66">
@@ -3154,16 +3154,16 @@
         <v>45650</v>
       </c>
       <c r="B66" t="n">
-        <v>161.7985468892599</v>
+        <v>161.7985317146104</v>
       </c>
       <c r="C66" t="n">
-        <v>162.7942702458527</v>
+        <v>162.794254977817</v>
       </c>
       <c r="D66" t="n">
-        <v>161.384489519937</v>
+        <v>161.3844743841209</v>
       </c>
       <c r="E66" t="n">
-        <v>162.6956787109375</v>
+        <v>162.6956634521484</v>
       </c>
       <c r="F66" t="n">
         <v>162600</v>
@@ -3178,19 +3178,19 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.004932379939059928</v>
+        <v>0.004932285689161375</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.03216906867450553</v>
+        <v>-0.0321690715945</v>
       </c>
       <c r="L66" t="n">
         <v>241395</v>
       </c>
       <c r="M66" t="n">
-        <v>166.4641746520996</v>
+        <v>166.4641731262207</v>
       </c>
       <c r="N66" t="n">
-        <v>167.8424420166016</v>
+        <v>167.8424411010742</v>
       </c>
     </row>
     <row r="67">
@@ -3198,16 +3198,16 @@
         <v>45652</v>
       </c>
       <c r="B67" t="n">
-        <v>162.4196447575583</v>
+        <v>162.4196294913561</v>
       </c>
       <c r="C67" t="n">
-        <v>162.9125723592505</v>
+        <v>162.9125570467168</v>
       </c>
       <c r="D67" t="n">
-        <v>161.8281256183451</v>
+        <v>161.8281104077411</v>
       </c>
       <c r="E67" t="n">
-        <v>162.3407745361328</v>
+        <v>162.3407592773438</v>
       </c>
       <c r="F67" t="n">
         <v>127700</v>
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.002181398901413001</v>
+        <v>-0.00218139910600057</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.03428029400485244</v>
+        <v>-0.0342802971164835</v>
       </c>
       <c r="L67" t="n">
         <v>240600</v>
       </c>
       <c r="M67" t="n">
-        <v>165.8295463562012</v>
+        <v>165.8295440673828</v>
       </c>
       <c r="N67" t="n">
-        <v>167.6903314208984</v>
+        <v>167.6903302001953</v>
       </c>
     </row>
     <row r="68">
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.002672108196460909</v>
+        <v>-0.002672014455271099</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.03686080154672589</v>
+        <v>-0.03686071412232839</v>
       </c>
       <c r="L68" t="n">
         <v>242730</v>
       </c>
       <c r="M68" t="n">
-        <v>165.1702934265137</v>
+        <v>165.1702911376953</v>
       </c>
       <c r="N68" t="n">
-        <v>167.4638049316406</v>
+        <v>167.4638034057617</v>
       </c>
     </row>
     <row r="69">
@@ -3313,16 +3313,16 @@
         <v>-0.003896902156457438</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.04061406076614715</v>
+        <v>-0.04061397368243391</v>
       </c>
       <c r="L69" t="n">
         <v>246450</v>
       </c>
       <c r="M69" t="n">
-        <v>164.4731346130371</v>
+        <v>164.4731315612793</v>
       </c>
       <c r="N69" t="n">
-        <v>167.2563555908203</v>
+        <v>167.2563540649414</v>
       </c>
     </row>
     <row r="70">
@@ -3330,16 +3330,16 @@
         <v>45657</v>
       </c>
       <c r="B70" t="n">
-        <v>161.5323850428182</v>
+        <v>161.5323697438787</v>
       </c>
       <c r="C70" t="n">
-        <v>162.1140360167327</v>
+        <v>162.1140206627042</v>
       </c>
       <c r="D70" t="n">
-        <v>160.4282169588091</v>
+        <v>160.4282017644467</v>
       </c>
       <c r="E70" t="n">
-        <v>161.1084594726562</v>
+        <v>161.1084442138672</v>
       </c>
       <c r="F70" t="n">
         <v>166000</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.001039133111504054</v>
+        <v>-0.001039227724370373</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.04161099046231642</v>
+        <v>-0.04161099423935666</v>
       </c>
       <c r="L70" t="n">
         <v>242015</v>
       </c>
       <c r="M70" t="n">
-        <v>163.942707824707</v>
+        <v>163.9427047729492</v>
       </c>
       <c r="N70" t="n">
-        <v>167.0289239501953</v>
+        <v>167.0289221191406</v>
       </c>
     </row>
     <row r="71">
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.006731036243735389</v>
+        <v>0.006731131592533357</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.03516003930352063</v>
+        <v>-0.03515995172474451</v>
       </c>
       <c r="L71" t="n">
         <v>241900</v>
       </c>
       <c r="M71" t="n">
-        <v>163.5335144042969</v>
+        <v>163.5335113525391</v>
       </c>
       <c r="N71" t="n">
-        <v>166.8364852905273</v>
+        <v>166.8364834594726</v>
       </c>
     </row>
     <row r="72">
@@ -3418,16 +3418,16 @@
         <v>45660</v>
       </c>
       <c r="B72" t="n">
-        <v>163.1984638063458</v>
+        <v>163.1984486172912</v>
       </c>
       <c r="C72" t="n">
-        <v>164.7955594655968</v>
+        <v>164.7955441278987</v>
       </c>
       <c r="D72" t="n">
-        <v>162.6069597098826</v>
+        <v>162.6069445758798</v>
       </c>
       <c r="E72" t="n">
-        <v>163.9477233886719</v>
+        <v>163.9477081298828</v>
       </c>
       <c r="F72" t="n">
         <v>215500</v>
@@ -3442,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.01081944514088318</v>
+        <v>0.01081935106284204</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.02472100627903318</v>
+        <v>-0.0247210085229651</v>
       </c>
       <c r="L72" t="n">
         <v>238685</v>
       </c>
       <c r="M72" t="n">
-        <v>163.2296722412109</v>
+        <v>163.2296684265137</v>
       </c>
       <c r="N72" t="n">
-        <v>166.6899044799805</v>
+        <v>166.68990234375</v>
       </c>
     </row>
     <row r="73">
@@ -3486,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.01064351381239736</v>
+        <v>-0.01064342173192789</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.03510140171964327</v>
+        <v>-0.03510131413554451</v>
       </c>
       <c r="L73" t="n">
         <v>240190</v>
       </c>
       <c r="M73" t="n">
-        <v>162.8170585632324</v>
+        <v>162.8170547485352</v>
       </c>
       <c r="N73" t="n">
-        <v>166.4792712402344</v>
+        <v>166.4792691040039</v>
       </c>
     </row>
     <row r="74">
@@ -3533,16 +3533,16 @@
         <v>-0.002917370915603068</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.03791636882677252</v>
+        <v>-0.03791628149818915</v>
       </c>
       <c r="L74" t="n">
         <v>240325</v>
       </c>
       <c r="M74" t="n">
-        <v>162.4781234741211</v>
+        <v>162.4781196594238</v>
       </c>
       <c r="N74" t="n">
-        <v>166.2818698120117</v>
+        <v>166.281867980957</v>
       </c>
     </row>
     <row r="75">
@@ -3577,16 +3577,16 @@
         <v>0.0007314767178028259</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.03721262704999007</v>
+        <v>-0.03721253965752791</v>
       </c>
       <c r="L75" t="n">
         <v>240920</v>
       </c>
       <c r="M75" t="n">
-        <v>162.2463554382324</v>
+        <v>162.2463516235352</v>
       </c>
       <c r="N75" t="n">
-        <v>166.1349661254883</v>
+        <v>166.1349642944336</v>
       </c>
     </row>
     <row r="76">
@@ -3621,16 +3621,16 @@
         <v>-0.007309420507105813</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.04425004481781336</v>
+        <v>-0.04424995806413945</v>
       </c>
       <c r="L76" t="n">
         <v>243190</v>
       </c>
       <c r="M76" t="n">
-        <v>162.0116874694824</v>
+        <v>162.0116836547851</v>
       </c>
       <c r="N76" t="n">
-        <v>165.9389666748047</v>
+        <v>165.9389651489258</v>
       </c>
     </row>
     <row r="77">
@@ -3665,16 +3665,16 @@
         <v>-0.0106154902543657</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.05439579915266035</v>
+        <v>-0.05439571331991921</v>
       </c>
       <c r="L77" t="n">
         <v>245760</v>
       </c>
       <c r="M77" t="n">
-        <v>161.7386993408203</v>
+        <v>161.7386955261231</v>
       </c>
       <c r="N77" t="n">
-        <v>165.7767489624023</v>
+        <v>165.7767474365234</v>
       </c>
     </row>
     <row r="78">
@@ -3709,16 +3709,16 @@
         <v>0.01376829651791645</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.04137644012680675</v>
+        <v>-0.04137635311229504</v>
       </c>
       <c r="L78" t="n">
         <v>247925</v>
       </c>
       <c r="M78" t="n">
-        <v>161.5932395935059</v>
+        <v>161.593236541748</v>
       </c>
       <c r="N78" t="n">
-        <v>165.6659338378906</v>
+        <v>165.6659323120117</v>
       </c>
     </row>
     <row r="79">
@@ -3753,16 +3753,16 @@
         <v>0.01535547621112721</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.02665631885774788</v>
+        <v>-0.02665623050708688</v>
       </c>
       <c r="L79" t="n">
         <v>251375</v>
       </c>
       <c r="M79" t="n">
-        <v>161.5685707092285</v>
+        <v>161.5685676574707</v>
       </c>
       <c r="N79" t="n">
-        <v>165.5734994506836</v>
+        <v>165.5734979248047</v>
       </c>
     </row>
     <row r="80">
@@ -3797,16 +3797,16 @@
         <v>0.02361869736682953</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.003667209018933248</v>
+        <v>-0.003667118581544671</v>
       </c>
       <c r="L80" t="n">
         <v>246720</v>
       </c>
       <c r="M80" t="n">
-        <v>161.7938682556152</v>
+        <v>161.7938652038574</v>
       </c>
       <c r="N80" t="n">
-        <v>165.632705078125</v>
+        <v>165.6327038574219</v>
       </c>
     </row>
     <row r="81">
@@ -3841,16 +3841,16 @@
         <v>0.001648077734606401</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.002025175129859114</v>
+        <v>-0.002025084543422651</v>
       </c>
       <c r="L81" t="n">
         <v>244660</v>
       </c>
       <c r="M81" t="n">
-        <v>162.0686752319336</v>
+        <v>162.0686729431152</v>
       </c>
       <c r="N81" t="n">
-        <v>165.7303015136719</v>
+        <v>165.7303002929688</v>
       </c>
     </row>
     <row r="82">
@@ -3858,16 +3858,16 @@
         <v>45678</v>
       </c>
       <c r="B82" t="n">
-        <v>169.2713169832257</v>
+        <v>169.2713321633294</v>
       </c>
       <c r="C82" t="n">
-        <v>171.0360060292103</v>
+        <v>171.0360213675698</v>
       </c>
       <c r="D82" t="n">
-        <v>169.2318893982839</v>
+        <v>169.2319045748517</v>
       </c>
       <c r="E82" t="n">
-        <v>170.1487274169922</v>
+        <v>170.1487426757812</v>
       </c>
       <c r="F82" t="n">
         <v>384800</v>
@@ -3882,19 +3882,19 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01422100149219885</v>
+        <v>0.01422109244665104</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01216702634379607</v>
+        <v>0.01216720898872414</v>
       </c>
       <c r="L82" t="n">
         <v>240110</v>
       </c>
       <c r="M82" t="n">
-        <v>162.6636375427246</v>
+        <v>162.6636360168457</v>
       </c>
       <c r="N82" t="n">
-        <v>165.8257211303711</v>
+        <v>165.8257202148438</v>
       </c>
     </row>
     <row r="83">
@@ -3926,19 +3926,19 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.02056889388062833</v>
+        <v>-0.02056898171514543</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.008652129810540643</v>
+        <v>-0.008652039825634672</v>
       </c>
       <c r="L83" t="n">
         <v>236450</v>
       </c>
       <c r="M83" t="n">
-        <v>163.0431922912598</v>
+        <v>163.0431900024414</v>
       </c>
       <c r="N83" t="n">
-        <v>165.8763848876953</v>
+        <v>165.876383972168</v>
       </c>
     </row>
     <row r="84">
@@ -3973,16 +3973,16 @@
         <v>0.003371970861894003</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.005309333678261141</v>
+        <v>-0.005309243389928664</v>
       </c>
       <c r="L84" t="n">
         <v>226325</v>
       </c>
       <c r="M84" t="n">
-        <v>163.3399345397949</v>
+        <v>163.3399322509766</v>
       </c>
       <c r="N84" t="n">
-        <v>165.9396566772461</v>
+        <v>165.9396560668945</v>
       </c>
     </row>
     <row r="85">
@@ -3990,16 +3990,16 @@
         <v>45681</v>
       </c>
       <c r="B85" t="n">
-        <v>166.9939996536195</v>
+        <v>166.9940147449151</v>
       </c>
       <c r="C85" t="n">
-        <v>169.2811907728885</v>
+        <v>169.2812060708782</v>
       </c>
       <c r="D85" t="n">
-        <v>166.7179614210119</v>
+        <v>166.7179764873619</v>
       </c>
       <c r="E85" t="n">
-        <v>168.847412109375</v>
+        <v>168.8474273681641</v>
       </c>
       <c r="F85" t="n">
         <v>298200</v>
@@ -4014,19 +4014,19 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.009787163795807352</v>
+        <v>0.009787255050562882</v>
       </c>
       <c r="K85" t="n">
-        <v>0.004425866799190548</v>
+        <v>0.004426048741451361</v>
       </c>
       <c r="L85" t="n">
         <v>228115</v>
       </c>
       <c r="M85" t="n">
-        <v>163.6874481201172</v>
+        <v>163.6874465942383</v>
       </c>
       <c r="N85" t="n">
-        <v>165.9748101806641</v>
+        <v>165.9748098754883</v>
       </c>
     </row>
     <row r="86">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.02113625453478096</v>
+        <v>-0.02113634299497047</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.01680393398279512</v>
+        <v>-0.01680384473783092</v>
       </c>
       <c r="L86" t="n">
         <v>235930</v>
       </c>
       <c r="M86" t="n">
-        <v>163.8165946960449</v>
+        <v>163.8165939331055</v>
       </c>
       <c r="N86" t="n">
-        <v>165.9233264160156</v>
+        <v>165.9233261108398</v>
       </c>
     </row>
     <row r="87">
@@ -4105,7 +4105,7 @@
         <v>-0.01365935297869703</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.03023375609579038</v>
+        <v>-0.03023366806985472</v>
       </c>
       <c r="L87" t="n">
         <v>245170</v>
@@ -4114,7 +4114,7 @@
         <v>163.8506065368652</v>
       </c>
       <c r="N87" t="n">
-        <v>165.8638656616211</v>
+        <v>165.8638650512695</v>
       </c>
     </row>
     <row r="88">
@@ -4149,7 +4149,7 @@
         <v>0.001995648529611982</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.02829844351707556</v>
+        <v>-0.02829835531547109</v>
       </c>
       <c r="L88" t="n">
         <v>239985</v>
@@ -4158,7 +4158,7 @@
         <v>163.9225746154785</v>
       </c>
       <c r="N88" t="n">
-        <v>165.8177590942383</v>
+        <v>165.8177584838867</v>
       </c>
     </row>
     <row r="89">
@@ -4193,7 +4193,7 @@
         <v>0.02033915531207375</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.008534854642785583</v>
+        <v>-0.008534764647234905</v>
       </c>
       <c r="L89" t="n">
         <v>245745</v>
@@ -4202,7 +4202,7 @@
         <v>164.1922058105469</v>
       </c>
       <c r="N89" t="n">
-        <v>165.8508169555664</v>
+        <v>165.8508163452148</v>
       </c>
     </row>
     <row r="90">
@@ -4237,16 +4237,16 @@
         <v>-0.005915059492998087</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.01439942996280752</v>
+        <v>-0.01439934049958591</v>
       </c>
       <c r="L90" t="n">
         <v>252545</v>
       </c>
       <c r="M90" t="n">
-        <v>164.420923614502</v>
+        <v>164.4209243774414</v>
       </c>
       <c r="N90" t="n">
-        <v>165.8166131591797</v>
+        <v>165.8166125488281</v>
       </c>
     </row>
     <row r="91">
@@ -4281,16 +4281,16 @@
         <v>0.006009841972726804</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.008476126288654573</v>
+        <v>-0.008476036287773159</v>
       </c>
       <c r="L91" t="n">
         <v>253775</v>
       </c>
       <c r="M91" t="n">
-        <v>164.645206451416</v>
+        <v>164.6452072143555</v>
       </c>
       <c r="N91" t="n">
-        <v>165.7733670043945</v>
+        <v>165.7733660888672</v>
       </c>
     </row>
     <row r="92">
@@ -4325,16 +4325,16 @@
         <v>-0.00863555407657568</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.01703848431830468</v>
+        <v>-0.01703839509463079</v>
       </c>
       <c r="L92" t="n">
         <v>249245</v>
       </c>
       <c r="M92" t="n">
-        <v>164.7097793579102</v>
+        <v>164.7097808837891</v>
       </c>
       <c r="N92" t="n">
-        <v>165.6811813354492</v>
+        <v>165.6811801147461</v>
       </c>
     </row>
     <row r="93">
@@ -4369,16 +4369,16 @@
         <v>0.01008291074570722</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.007127371089221013</v>
+        <v>-0.007127280965912863</v>
       </c>
       <c r="L93" t="n">
         <v>245125</v>
       </c>
       <c r="M93" t="n">
-        <v>164.9449058532715</v>
+        <v>164.9449073791504</v>
       </c>
       <c r="N93" t="n">
-        <v>165.6193823242187</v>
+        <v>165.6193811035156</v>
       </c>
     </row>
     <row r="94">
@@ -4413,16 +4413,16 @@
         <v>-0.0001771755475071801</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.007303283840853214</v>
+        <v>-0.007303193733512625</v>
       </c>
       <c r="L94" t="n">
         <v>243260</v>
       </c>
       <c r="M94" t="n">
-        <v>165.202214050293</v>
+        <v>165.2022155761719</v>
       </c>
       <c r="N94" t="n">
-        <v>165.4990777587891</v>
+        <v>165.4990768432617</v>
       </c>
     </row>
     <row r="95">
@@ -4430,16 +4430,16 @@
         <v>45695</v>
       </c>
       <c r="B95" t="n">
-        <v>166.9742752562781</v>
+        <v>166.9742905783927</v>
       </c>
       <c r="C95" t="n">
-        <v>167.8418325672879</v>
+        <v>167.8418479690124</v>
       </c>
       <c r="D95" t="n">
-        <v>166.2250307877412</v>
+        <v>166.2250460411026</v>
       </c>
       <c r="E95" t="n">
-        <v>166.2841796875</v>
+        <v>166.2841949462891</v>
       </c>
       <c r="F95" t="n">
         <v>148500</v>
@@ -4454,19 +4454,19 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.003544687513201361</v>
+        <v>-0.003544596075149675</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.01082208349501856</v>
+        <v>-0.01082190293681839</v>
       </c>
       <c r="L95" t="n">
         <v>239845</v>
       </c>
       <c r="M95" t="n">
-        <v>165.4240310668945</v>
+        <v>165.4240333557129</v>
       </c>
       <c r="N95" t="n">
-        <v>165.3802474975586</v>
+        <v>165.380246887207</v>
       </c>
     </row>
     <row r="96">
@@ -4474,16 +4474,16 @@
         <v>45698</v>
       </c>
       <c r="B96" t="n">
-        <v>166.9940097121064</v>
+        <v>166.9939945508773</v>
       </c>
       <c r="C96" t="n">
-        <v>168.0883095726259</v>
+        <v>168.0882943120464</v>
       </c>
       <c r="D96" t="n">
-        <v>165.9785800717904</v>
+        <v>165.9785650027512</v>
       </c>
       <c r="E96" t="n">
-        <v>168.0685882568359</v>
+        <v>168.0685729980469</v>
       </c>
       <c r="F96" t="n">
         <v>99700</v>
@@ -4498,19 +4498,19 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01073107840258403</v>
+        <v>0.01073089389123338</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.0002071377188989088</v>
+        <v>-0.0002071377377012018</v>
       </c>
       <c r="L96" t="n">
         <v>229625</v>
       </c>
       <c r="M96" t="n">
-        <v>165.7942192077637</v>
+        <v>165.7942207336426</v>
       </c>
       <c r="N96" t="n">
-        <v>165.2877139282226</v>
+        <v>165.2877130126953</v>
       </c>
     </row>
     <row r="97">
@@ -4542,19 +4542,19 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.005103253035554811</v>
+        <v>0.005103344287942235</v>
       </c>
       <c r="K97" t="n">
-        <v>0.004895058240463213</v>
+        <v>0.004895149455050429</v>
       </c>
       <c r="L97" t="n">
         <v>214185</v>
       </c>
       <c r="M97" t="n">
-        <v>166.2925689697266</v>
+        <v>166.2925704956055</v>
       </c>
       <c r="N97" t="n">
-        <v>165.1655728149414</v>
+        <v>165.1655718994141</v>
       </c>
     </row>
     <row r="98">
@@ -4589,16 +4589,16 @@
         <v>-0.001050515714694389</v>
       </c>
       <c r="K98" t="n">
-        <v>0.003839400190162934</v>
+        <v>0.003839491308927689</v>
       </c>
       <c r="L98" t="n">
         <v>211835</v>
       </c>
       <c r="M98" t="n">
-        <v>166.672615814209</v>
+        <v>166.6726173400879</v>
       </c>
       <c r="N98" t="n">
-        <v>165.0387084960938</v>
+        <v>165.0387075805664</v>
       </c>
     </row>
     <row r="99">
@@ -4606,16 +4606,16 @@
         <v>45701</v>
       </c>
       <c r="B99" t="n">
-        <v>169.0051475914032</v>
+        <v>169.0051323370636</v>
       </c>
       <c r="C99" t="n">
-        <v>169.4487944601929</v>
+        <v>169.4487791658099</v>
       </c>
       <c r="D99" t="n">
-        <v>168.1770328441202</v>
+        <v>168.1770176645258</v>
       </c>
       <c r="E99" t="n">
-        <v>169.054443359375</v>
+        <v>169.0544281005859</v>
       </c>
       <c r="F99" t="n">
         <v>112600</v>
@@ -4630,19 +4630,19 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0.001811083934955882</v>
+        <v>0.001810993511872416</v>
       </c>
       <c r="K99" t="n">
-        <v>0.005657437601123139</v>
+        <v>0.005657438114649471</v>
       </c>
       <c r="L99" t="n">
         <v>208575</v>
       </c>
       <c r="M99" t="n">
-        <v>166.9442184448242</v>
+        <v>166.9442192077637</v>
       </c>
       <c r="N99" t="n">
-        <v>164.915412902832</v>
+        <v>164.9154113769531</v>
       </c>
     </row>
     <row r="100">
@@ -4674,19 +4674,19 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.004606941036642498</v>
+        <v>-0.004606851192839545</v>
       </c>
       <c r="K100" t="n">
-        <v>0.001024433083033793</v>
+        <v>0.00102452394628294</v>
       </c>
       <c r="L100" t="n">
         <v>204775</v>
       </c>
       <c r="M100" t="n">
-        <v>166.9836524963379</v>
+        <v>166.9836532592773</v>
       </c>
       <c r="N100" t="n">
-        <v>164.8465853881836</v>
+        <v>164.8465841674805</v>
       </c>
     </row>
     <row r="101">
@@ -4721,16 +4721,16 @@
         <v>0.01136568175637698</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01240175821981326</v>
+        <v>0.01240185011578521</v>
       </c>
       <c r="L101" t="n">
         <v>201015</v>
       </c>
       <c r="M101" t="n">
-        <v>167.1049133300781</v>
+        <v>167.1049140930176</v>
       </c>
       <c r="N101" t="n">
-        <v>164.8428140258789</v>
+        <v>164.8428128051758</v>
       </c>
     </row>
     <row r="102">
@@ -4765,7 +4765,7 @@
         <v>0.003707372057783376</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01615510820948818</v>
+        <v>0.01615520044615271</v>
       </c>
       <c r="L102" t="n">
         <v>186640</v>
@@ -4774,7 +4774,7 @@
         <v>167.1384338378906</v>
       </c>
       <c r="N102" t="n">
-        <v>164.8587054443359</v>
+        <v>164.8587042236328</v>
       </c>
     </row>
     <row r="103">
@@ -4782,16 +4782,16 @@
         <v>45708</v>
       </c>
       <c r="B103" t="n">
-        <v>170.3360572805179</v>
+        <v>170.3360420701474</v>
       </c>
       <c r="C103" t="n">
-        <v>171.2923380112691</v>
+        <v>171.2923227155063</v>
       </c>
       <c r="D103" t="n">
-        <v>168.9361447260985</v>
+        <v>168.9361296407349</v>
       </c>
       <c r="E103" t="n">
-        <v>170.8782806396484</v>
+        <v>170.8782653808594</v>
       </c>
       <c r="F103" t="n">
         <v>119500</v>
@@ -4806,19 +4806,19 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0003462320864422441</v>
+        <v>0.0003461427592785782</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01650693371275258</v>
+        <v>0.01650693521109048</v>
       </c>
       <c r="L103" t="n">
         <v>178135</v>
       </c>
       <c r="M103" t="n">
-        <v>167.3499000549317</v>
+        <v>167.3498992919922</v>
       </c>
       <c r="N103" t="n">
-        <v>164.867170715332</v>
+        <v>164.8671691894531</v>
       </c>
     </row>
     <row r="104">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.0002885161723092944</v>
+        <v>-0.000288426901818184</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01621365502311201</v>
+        <v>0.01621374726509095</v>
       </c>
       <c r="L104" t="n">
         <v>172910</v>
       </c>
       <c r="M104" t="n">
-        <v>167.5308044433594</v>
+        <v>167.5308036804199</v>
       </c>
       <c r="N104" t="n">
-        <v>164.9135855102539</v>
+        <v>164.913583984375</v>
       </c>
     </row>
     <row r="105">
@@ -4870,16 +4870,16 @@
         <v>45712</v>
       </c>
       <c r="B105" t="n">
-        <v>171.4993591277903</v>
+        <v>171.4993745077028</v>
       </c>
       <c r="C105" t="n">
-        <v>171.4993591277903</v>
+        <v>171.4993745077028</v>
       </c>
       <c r="D105" t="n">
-        <v>169.4290574089029</v>
+        <v>169.4290726031526</v>
       </c>
       <c r="E105" t="n">
-        <v>170.1487274169922</v>
+        <v>170.1487426757812</v>
       </c>
       <c r="F105" t="n">
         <v>158500</v>
@@ -4894,19 +4894,19 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.003982064853501166</v>
+        <v>-0.003981975531483828</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01216702634379652</v>
+        <v>0.01216720898872392</v>
       </c>
       <c r="L105" t="n">
         <v>165925</v>
       </c>
       <c r="M105" t="n">
-        <v>167.5958702087402</v>
+        <v>167.5958694458008</v>
       </c>
       <c r="N105" t="n">
-        <v>164.9868960571289</v>
+        <v>164.9868948364258</v>
       </c>
     </row>
     <row r="106">
@@ -4938,19 +4938,19 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.003708142156121141</v>
+        <v>-0.003708231502695614</v>
       </c>
       <c r="K106" t="n">
-        <v>0.00841376712437536</v>
+        <v>0.008413858658356421</v>
       </c>
       <c r="L106" t="n">
         <v>156590</v>
       </c>
       <c r="M106" t="n">
-        <v>167.807829284668</v>
+        <v>167.8078285217285</v>
       </c>
       <c r="N106" t="n">
-        <v>165.0700881958008</v>
+        <v>165.0700869750977</v>
       </c>
     </row>
     <row r="107">
@@ -4985,16 +4985,16 @@
         <v>0.003954717027327304</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01240175821981349</v>
+        <v>0.01240185011578543</v>
       </c>
       <c r="L107" t="n">
         <v>145835</v>
       </c>
       <c r="M107" t="n">
-        <v>168.1661880493164</v>
+        <v>168.166187286377</v>
       </c>
       <c r="N107" t="n">
-        <v>165.1854708862305</v>
+        <v>165.1854696655273</v>
       </c>
     </row>
     <row r="108">
@@ -5029,16 +5029,16 @@
         <v>-0.02062213379121247</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.00847612628865424</v>
+        <v>-0.008476036287773381</v>
       </c>
       <c r="L108" t="n">
         <v>144755</v>
       </c>
       <c r="M108" t="n">
-        <v>168.3327980041504</v>
+        <v>168.3327972412109</v>
       </c>
       <c r="N108" t="n">
-        <v>165.2379000854492</v>
+        <v>165.2378991699219</v>
       </c>
     </row>
     <row r="109">
@@ -5073,16 +5073,16 @@
         <v>0.01419524701227504</v>
       </c>
       <c r="K109" t="n">
-        <v>0.005598800017246219</v>
+        <v>0.005598891295711672</v>
       </c>
       <c r="L109" t="n">
         <v>138640</v>
       </c>
       <c r="M109" t="n">
-        <v>168.4515937805176</v>
+        <v>168.4515930175781</v>
       </c>
       <c r="N109" t="n">
-        <v>165.3364764404297</v>
+        <v>165.3364755249023</v>
       </c>
     </row>
     <row r="110">
@@ -5117,16 +5117,16 @@
         <v>0.001457958320372876</v>
       </c>
       <c r="K110" t="n">
-        <v>0.007064921154688264</v>
+        <v>0.00706501256623393</v>
       </c>
       <c r="L110" t="n">
         <v>131505</v>
       </c>
       <c r="M110" t="n">
-        <v>168.6320053100586</v>
+        <v>168.6320045471192</v>
       </c>
       <c r="N110" t="n">
-        <v>165.4626776123047</v>
+        <v>165.4626766967774</v>
       </c>
     </row>
     <row r="111">
@@ -5134,16 +5134,16 @@
         <v>45720</v>
       </c>
       <c r="B111" t="n">
-        <v>169.2713260677149</v>
+        <v>169.2713415583668</v>
       </c>
       <c r="C111" t="n">
-        <v>170.0402918804667</v>
+        <v>170.0403074414895</v>
       </c>
       <c r="D111" t="n">
-        <v>166.4616479189544</v>
+        <v>166.4616631524822</v>
       </c>
       <c r="E111" t="n">
-        <v>166.7376861572266</v>
+        <v>166.7377014160156</v>
       </c>
       <c r="F111" t="n">
         <v>214000</v>
@@ -5158,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.01508266410735692</v>
+        <v>-0.01508257397388901</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.008124300785389837</v>
+        <v>-0.008124119982311773</v>
       </c>
       <c r="L111" t="n">
         <v>131870</v>
@@ -5170,7 +5170,7 @@
         <v>168.6349624633789</v>
       </c>
       <c r="N111" t="n">
-        <v>165.5520947265625</v>
+        <v>165.5520944213867</v>
       </c>
     </row>
     <row r="112">
@@ -5202,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.007627304075719876</v>
+        <v>-0.00762739489144737</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.01568963834861692</v>
+        <v>-0.01568954900250852</v>
       </c>
       <c r="L112" t="n">
         <v>134590</v>
@@ -5214,7 +5214,7 @@
         <v>168.6462997436523</v>
       </c>
       <c r="N112" t="n">
-        <v>165.6964236450195</v>
+        <v>165.6964233398438</v>
       </c>
     </row>
     <row r="113">
@@ -5249,7 +5249,7 @@
         <v>-0.02025733183634226</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.03562913997453909</v>
+        <v>-0.03562905243834447</v>
       </c>
       <c r="L113" t="n">
         <v>138885</v>
@@ -5258,7 +5258,7 @@
         <v>168.4067375183105</v>
       </c>
       <c r="N113" t="n">
-        <v>165.7575469970703</v>
+        <v>165.7575463867188</v>
       </c>
     </row>
     <row r="114">
@@ -5293,7 +5293,7 @@
         <v>0.01751399267999187</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.01873915579125573</v>
+        <v>-0.0187390667219528</v>
       </c>
       <c r="L114" t="n">
         <v>142475</v>
@@ -5302,7 +5302,7 @@
         <v>168.3106170654297</v>
       </c>
       <c r="N114" t="n">
-        <v>165.8310919189453</v>
+        <v>165.8310913085938</v>
       </c>
     </row>
     <row r="115">
@@ -5337,16 +5337,16 @@
         <v>0.01075771719011898</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.008183029139520626</v>
+        <v>-0.008182939112035381</v>
       </c>
       <c r="L115" t="n">
         <v>144100</v>
       </c>
       <c r="M115" t="n">
-        <v>168.3327987670899</v>
+        <v>168.3327980041504</v>
       </c>
       <c r="N115" t="n">
-        <v>165.9277053833008</v>
+        <v>165.9277047729492</v>
       </c>
     </row>
     <row r="116">
@@ -5354,16 +5354,16 @@
         <v>45727</v>
       </c>
       <c r="B116" t="n">
-        <v>166.6489396850644</v>
+        <v>166.6489550621093</v>
       </c>
       <c r="C116" t="n">
-        <v>167.3390502902565</v>
+        <v>167.3390657309794</v>
       </c>
       <c r="D116" t="n">
-        <v>164.4504870214539</v>
+        <v>164.450502195643</v>
       </c>
       <c r="E116" t="n">
-        <v>165.3673400878906</v>
+        <v>165.3673553466797</v>
       </c>
       <c r="F116" t="n">
         <v>215300</v>
@@ -5378,16 +5378,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.008159848092841426</v>
+        <v>-0.008159756573683841</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.01627610495764431</v>
+        <v>-0.01627592489450769</v>
       </c>
       <c r="L116" t="n">
         <v>149880</v>
       </c>
       <c r="M116" t="n">
-        <v>168.1977363586426</v>
+        <v>168.197737121582</v>
       </c>
       <c r="N116" t="n">
         <v>165.9811386108398</v>
@@ -5398,16 +5398,16 @@
         <v>45728</v>
       </c>
       <c r="B117" t="n">
-        <v>165.3574928634089</v>
+        <v>165.3574775425076</v>
       </c>
       <c r="C117" t="n">
-        <v>166.156033189685</v>
+        <v>166.1560177947962</v>
       </c>
       <c r="D117" t="n">
-        <v>163.8491355708971</v>
+        <v>163.8491203897499</v>
       </c>
       <c r="E117" t="n">
-        <v>164.6871185302734</v>
+        <v>164.6871032714844</v>
       </c>
       <c r="F117" t="n">
         <v>116500</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.004113397223754478</v>
+        <v>-0.004113581388353271</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.02032255209645251</v>
+        <v>-0.02032255394113669</v>
       </c>
       <c r="L117" t="n">
         <v>151120</v>
@@ -5466,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.003172630984991542</v>
+        <v>0.003172723932157728</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.01721439706993633</v>
+        <v>-0.01721430786223055</v>
       </c>
       <c r="L118" t="n">
         <v>151205</v>
@@ -5513,13 +5513,13 @@
         <v>0.01921470388818802</v>
       </c>
       <c r="K119" t="n">
-        <v>0.001669537275939215</v>
+        <v>0.001669628197744633</v>
       </c>
       <c r="L119" t="n">
         <v>151345</v>
       </c>
       <c r="M119" t="n">
-        <v>167.7752983093262</v>
+        <v>167.7752990722656</v>
       </c>
       <c r="N119" t="n">
         <v>166.2362783813477</v>
@@ -5557,16 +5557,16 @@
         <v>0.004800901984899575</v>
       </c>
       <c r="K120" t="n">
-        <v>0.00647845454566065</v>
+        <v>0.006478545903972899</v>
       </c>
       <c r="L120" t="n">
         <v>159610</v>
       </c>
       <c r="M120" t="n">
-        <v>167.8211402893066</v>
+        <v>167.8211410522461</v>
       </c>
       <c r="N120" t="n">
-        <v>166.3979583740234</v>
+        <v>166.3979586791992</v>
       </c>
     </row>
     <row r="121">
@@ -5574,16 +5574,16 @@
         <v>45734</v>
       </c>
       <c r="B121" t="n">
-        <v>168.3446170664933</v>
+        <v>168.3446323557244</v>
       </c>
       <c r="C121" t="n">
-        <v>168.3446170664933</v>
+        <v>168.3446323557244</v>
       </c>
       <c r="D121" t="n">
-        <v>166.9348514471658</v>
+        <v>166.9348666083606</v>
       </c>
       <c r="E121" t="n">
-        <v>168.0094299316406</v>
+        <v>168.0094451904297</v>
       </c>
       <c r="F121" t="n">
         <v>128000</v>
@@ -5598,19 +5598,19 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.00699220982455484</v>
+        <v>-0.006992119638567051</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.0005590539924162918</v>
+        <v>-0.000558872502638641</v>
       </c>
       <c r="L121" t="n">
         <v>159820</v>
       </c>
       <c r="M121" t="n">
-        <v>167.7122024536133</v>
+        <v>167.7122039794922</v>
       </c>
       <c r="N121" t="n">
-        <v>166.5142892456055</v>
+        <v>166.514289855957</v>
       </c>
     </row>
     <row r="122">
@@ -5618,16 +5618,16 @@
         <v>45735</v>
       </c>
       <c r="B122" t="n">
-        <v>168.0685947037358</v>
+        <v>168.0685794860088</v>
       </c>
       <c r="C122" t="n">
-        <v>168.8770032096139</v>
+        <v>168.8769879186898</v>
       </c>
       <c r="D122" t="n">
-        <v>167.5756670907731</v>
+        <v>167.575651917678</v>
       </c>
       <c r="E122" t="n">
-        <v>168.5220947265625</v>
+        <v>168.5220794677734</v>
       </c>
       <c r="F122" t="n">
         <v>85200</v>
@@ -5642,19 +5642,19 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.003051404883228637</v>
+        <v>0.003051222964058464</v>
       </c>
       <c r="K122" t="n">
-        <v>0.002490644990729818</v>
+        <v>0.002490645216805865</v>
       </c>
       <c r="L122" t="n">
         <v>159215</v>
       </c>
       <c r="M122" t="n">
-        <v>167.5973503112793</v>
+        <v>167.5973510742188</v>
       </c>
       <c r="N122" t="n">
-        <v>166.6057766723633</v>
+        <v>166.6057772827149</v>
       </c>
     </row>
     <row r="123">
@@ -5662,16 +5662,16 @@
         <v>45736</v>
       </c>
       <c r="B123" t="n">
-        <v>168.6403908901055</v>
+        <v>168.6403756828786</v>
       </c>
       <c r="C123" t="n">
-        <v>169.4980801145235</v>
+        <v>169.4980648299541</v>
       </c>
       <c r="D123" t="n">
-        <v>168.2854824105262</v>
+        <v>168.2854672353033</v>
       </c>
       <c r="E123" t="n">
-        <v>169.2121887207031</v>
+        <v>169.2121734619141</v>
       </c>
       <c r="F123" t="n">
         <v>86900</v>
@@ -5686,19 +5686,19 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.004094976360579539</v>
+        <v>0.00409497673135828</v>
       </c>
       <c r="K123" t="n">
-        <v>0.006595820483668913</v>
+        <v>0.00659582108237311</v>
       </c>
       <c r="L123" t="n">
         <v>157585</v>
       </c>
       <c r="M123" t="n">
-        <v>167.514045715332</v>
+        <v>167.5140464782715</v>
       </c>
       <c r="N123" t="n">
-        <v>166.7459655761719</v>
+        <v>166.7459658813476</v>
       </c>
     </row>
     <row r="124">
@@ -5730,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.007282751506155871</v>
+        <v>-0.007282661987400907</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.0007349667440487151</v>
+        <v>-0.0007348760405000432</v>
       </c>
       <c r="L124" t="n">
         <v>157590</v>
       </c>
       <c r="M124" t="n">
-        <v>167.3715896606445</v>
+        <v>167.371590423584</v>
       </c>
       <c r="N124" t="n">
-        <v>166.8709719848633</v>
+        <v>166.870972290039</v>
       </c>
     </row>
     <row r="125">
@@ -5777,7 +5777,7 @@
         <v>0.0008217116455233597</v>
       </c>
       <c r="K125" t="n">
-        <v>8.614097074199911e-05</v>
+        <v>8.623174882282925e-05</v>
       </c>
       <c r="L125" t="n">
         <v>155330</v>
@@ -5786,7 +5786,7 @@
         <v>167.2700477600098</v>
       </c>
       <c r="N125" t="n">
-        <v>166.9963729858399</v>
+        <v>166.9963732910156</v>
       </c>
     </row>
     <row r="126">
@@ -5821,7 +5821,7 @@
         <v>-0.0151327300777816</v>
       </c>
       <c r="K126" t="n">
-        <v>-0.01504789265509843</v>
+        <v>-0.01504780325073785</v>
       </c>
       <c r="L126" t="n">
         <v>157890</v>
@@ -5830,7 +5830,7 @@
         <v>167.0728485107422</v>
       </c>
       <c r="N126" t="n">
-        <v>167.0945526123047</v>
+        <v>167.0945529174805</v>
       </c>
     </row>
     <row r="127">
@@ -5865,7 +5865,7 @@
         <v>0.006237187293942625</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.008904561886024842</v>
+        <v>-0.008904471924032431</v>
       </c>
       <c r="L127" t="n">
         <v>159955</v>
@@ -5874,7 +5874,7 @@
         <v>166.8937652587891</v>
       </c>
       <c r="N127" t="n">
-        <v>167.247497253418</v>
+        <v>167.2474975585938</v>
       </c>
     </row>
     <row r="128">
@@ -5909,7 +5909,7 @@
         <v>-0.000119244692031395</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.009022744756316481</v>
+        <v>-0.009022654805051489</v>
       </c>
       <c r="L128" t="n">
         <v>165755</v>
@@ -5918,7 +5918,7 @@
         <v>166.8891708374023</v>
       </c>
       <c r="N128" t="n">
-        <v>167.3562725830078</v>
+        <v>167.3562728881836</v>
       </c>
     </row>
     <row r="129">
@@ -5953,7 +5953,7 @@
         <v>0.00757037626919832</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.001520674059904414</v>
+        <v>-0.001520583427674471</v>
       </c>
       <c r="L129" t="n">
         <v>165215</v>
@@ -5962,7 +5962,7 @@
         <v>166.8293304443359</v>
       </c>
       <c r="N129" t="n">
-        <v>167.4407803344727</v>
+        <v>167.4407806396484</v>
       </c>
     </row>
     <row r="130">
@@ -5997,7 +5997,7 @@
         <v>0.01053065834478173</v>
       </c>
       <c r="K130" t="n">
-        <v>0.008993970585898792</v>
+        <v>0.008994062172545725</v>
       </c>
       <c r="L130" t="n">
         <v>166050</v>
@@ -6006,7 +6006,7 @@
         <v>166.8455444335937</v>
       </c>
       <c r="N130" t="n">
-        <v>167.4833480834961</v>
+        <v>167.4833483886719</v>
       </c>
     </row>
     <row r="131">
@@ -6041,16 +6041,16 @@
         <v>0.003044375134379385</v>
       </c>
       <c r="K131" t="n">
-        <v>0.01206572674068918</v>
+        <v>0.01206581860616018</v>
       </c>
       <c r="L131" t="n">
         <v>168170</v>
       </c>
       <c r="M131" t="n">
-        <v>167.0152450561523</v>
+        <v>167.0152442932129</v>
       </c>
       <c r="N131" t="n">
-        <v>167.53072265625</v>
+        <v>167.5307229614258</v>
       </c>
     </row>
     <row r="132">
@@ -6085,13 +6085,13 @@
         <v>0.003618735521537575</v>
       </c>
       <c r="K132" t="n">
-        <v>0.01572812493617648</v>
+        <v>0.01572821713408423</v>
       </c>
       <c r="L132" t="n">
         <v>164740</v>
       </c>
       <c r="M132" t="n">
-        <v>167.2793167114258</v>
+        <v>167.2793159484863</v>
       </c>
       <c r="N132" t="n">
         <v>167.5426953125</v>
@@ -6129,13 +6129,13 @@
         <v>-0.005292267744905543</v>
       </c>
       <c r="K133" t="n">
-        <v>0.01035261974298329</v>
+        <v>0.01035271145295513</v>
       </c>
       <c r="L133" t="n">
         <v>164915</v>
       </c>
       <c r="M133" t="n">
-        <v>167.6658012390137</v>
+        <v>167.6658004760742</v>
       </c>
       <c r="N133" t="n">
         <v>167.6065905761719</v>
@@ -6173,13 +6173,13 @@
         <v>-0.05460710287184889</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.04481980970016386</v>
+        <v>-0.0448197229982078</v>
       </c>
       <c r="L134" t="n">
         <v>177700</v>
       </c>
       <c r="M134" t="n">
-        <v>167.4465888977051</v>
+        <v>167.4465881347656</v>
       </c>
       <c r="N134" t="n">
         <v>167.4737536621094</v>
@@ -6217,16 +6217,16 @@
         <v>-0.01471854223294322</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.05887866967116273</v>
+        <v>-0.0588785842453331</v>
       </c>
       <c r="L135" t="n">
         <v>254905</v>
       </c>
       <c r="M135" t="n">
-        <v>167.0204833984375</v>
+        <v>167.020482635498</v>
       </c>
       <c r="N135" t="n">
-        <v>167.2609194946289</v>
+        <v>167.2609191894531</v>
       </c>
     </row>
     <row r="136">
@@ -6261,16 +6261,16 @@
         <v>-0.006025654095723199</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.06454954126983115</v>
+        <v>-0.06454945635874798</v>
       </c>
       <c r="L136" t="n">
         <v>261085</v>
       </c>
       <c r="M136" t="n">
-        <v>166.6147369384766</v>
+        <v>166.6147354125977</v>
       </c>
       <c r="N136" t="n">
-        <v>167.1003955078125</v>
+        <v>167.1003952026367</v>
       </c>
     </row>
     <row r="137">
@@ -6305,16 +6305,16 @@
         <v>0.03870928052006972</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.02833892705021712</v>
+        <v>-0.02833883885228705</v>
       </c>
       <c r="L137" t="n">
         <v>280740</v>
       </c>
       <c r="M137" t="n">
-        <v>166.5473579406738</v>
+        <v>166.5473571777344</v>
       </c>
       <c r="N137" t="n">
-        <v>167.1067660522461</v>
+        <v>167.1067657470703</v>
       </c>
     </row>
     <row r="138">
@@ -6349,16 +6349,16 @@
         <v>-0.00668739292006626</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.03483680643016551</v>
+        <v>-0.03483671882204964</v>
       </c>
       <c r="L138" t="n">
         <v>290975</v>
       </c>
       <c r="M138" t="n">
-        <v>166.3992385864258</v>
+        <v>166.3992378234863</v>
       </c>
       <c r="N138" t="n">
-        <v>167.0847836303711</v>
+        <v>167.0847833251953</v>
       </c>
     </row>
     <row r="139">
@@ -6393,16 +6393,16 @@
         <v>0.01279145726422026</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.02249096268661865</v>
+        <v>-0.02249087395786731</v>
       </c>
       <c r="L139" t="n">
         <v>293765</v>
       </c>
       <c r="M139" t="n">
-        <v>166.1961654663086</v>
+        <v>166.1961647033691</v>
       </c>
       <c r="N139" t="n">
-        <v>167.0378622436523</v>
+        <v>167.0378619384766</v>
       </c>
     </row>
     <row r="140">
@@ -6437,16 +6437,16 @@
         <v>0.01728305367067806</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.005596621531158585</v>
+        <v>-0.005596531268903471</v>
       </c>
       <c r="L140" t="n">
         <v>292170</v>
       </c>
       <c r="M140" t="n">
-        <v>166.0946723937988</v>
+        <v>166.0946716308594</v>
       </c>
       <c r="N140" t="n">
-        <v>167.0674578857422</v>
+        <v>167.0674575805664</v>
       </c>
     </row>
     <row r="141">
@@ -6481,16 +6481,16 @@
         <v>0.000772329552590989</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.004828614414770782</v>
+        <v>-0.004828524082803431</v>
       </c>
       <c r="L141" t="n">
         <v>292650</v>
       </c>
       <c r="M141" t="n">
-        <v>166.0587860107422</v>
+        <v>166.0587844848633</v>
       </c>
       <c r="N141" t="n">
-        <v>167.0797210693359</v>
+        <v>167.0797207641602</v>
       </c>
     </row>
     <row r="142">
@@ -6525,16 +6525,16 @@
         <v>-0.009081755685092952</v>
       </c>
       <c r="K142" t="n">
-        <v>-0.01386651780345127</v>
+        <v>-0.0138664282918568</v>
       </c>
       <c r="L142" t="n">
         <v>299970</v>
       </c>
       <c r="M142" t="n">
-        <v>165.9213012695313</v>
+        <v>165.9213005065918</v>
       </c>
       <c r="N142" t="n">
-        <v>167.0903854370117</v>
+        <v>167.0903851318359</v>
       </c>
     </row>
     <row r="143">
@@ -6569,7 +6569,7 @@
         <v>0.01102193839135635</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.002997415317027241</v>
+        <v>-0.002997324818841518</v>
       </c>
       <c r="L143" t="n">
         <v>302140</v>
@@ -6578,7 +6578,7 @@
         <v>165.8406684875488</v>
       </c>
       <c r="N143" t="n">
-        <v>167.1042706298828</v>
+        <v>167.104270324707</v>
       </c>
     </row>
     <row r="144">
@@ -6613,7 +6613,7 @@
         <v>-0.02346245649161771</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.02638954508218194</v>
+        <v>-0.02638945670730597</v>
       </c>
       <c r="L144" t="n">
         <v>301845</v>
@@ -6622,7 +6622,7 @@
         <v>165.6250373840332</v>
       </c>
       <c r="N144" t="n">
-        <v>167.0401013183594</v>
+        <v>167.0401010131836</v>
       </c>
     </row>
     <row r="145">
@@ -6657,7 +6657,7 @@
         <v>0.02675642656936872</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.0003392084380037241</v>
+        <v>-0.0003391176985317879</v>
       </c>
       <c r="L145" t="n">
         <v>302430</v>
@@ -6666,7 +6666,7 @@
         <v>165.6214622497559</v>
       </c>
       <c r="N145" t="n">
-        <v>167.0753454589844</v>
+        <v>167.0753448486328</v>
       </c>
     </row>
     <row r="146">
@@ -6701,7 +6701,7 @@
         <v>0.003545417960884256</v>
       </c>
       <c r="K146" t="n">
-        <v>0.003205006887192052</v>
+        <v>0.003205097948373314</v>
       </c>
       <c r="L146" t="n">
         <v>301830</v>
@@ -6710,7 +6710,7 @@
         <v>165.7748809814453</v>
       </c>
       <c r="N146" t="n">
-        <v>167.0868173217773</v>
+        <v>167.0868170166016</v>
       </c>
     </row>
     <row r="147">
@@ -6745,7 +6745,7 @@
         <v>0.001001073638810412</v>
       </c>
       <c r="K147" t="n">
-        <v>0.004209288973909375</v>
+        <v>0.004209380126249718</v>
       </c>
       <c r="L147" t="n">
         <v>300130</v>
@@ -6754,7 +6754,7 @@
         <v>165.8851051330566</v>
       </c>
       <c r="N147" t="n">
-        <v>167.08451171875</v>
+        <v>167.0845114135742</v>
       </c>
     </row>
     <row r="148">
@@ -6789,7 +6789,7 @@
         <v>-0.003823487566614991</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0003697072432382598</v>
+        <v>0.0003697980470589446</v>
       </c>
       <c r="L148" t="n">
         <v>292400</v>
@@ -6798,7 +6798,7 @@
         <v>165.9640502929688</v>
       </c>
       <c r="N148" t="n">
-        <v>167.0728463745117</v>
+        <v>167.0728460693359</v>
       </c>
     </row>
     <row r="149">
@@ -6833,7 +6833,7 @@
         <v>0.007203950168126028</v>
       </c>
       <c r="K149" t="n">
-        <v>0.007576320763921451</v>
+        <v>0.007576412221888207</v>
       </c>
       <c r="L149" t="n">
         <v>291080</v>
@@ -6877,7 +6877,7 @@
         <v>0.006917926123024554</v>
       </c>
       <c r="K150" t="n">
-        <v>0.01454665931427512</v>
+        <v>0.01454675140494133</v>
       </c>
       <c r="L150" t="n">
         <v>288490</v>
@@ -6921,7 +6921,7 @@
         <v>-0.004424947009877278</v>
       </c>
       <c r="K151" t="n">
-        <v>0.01005734410776138</v>
+        <v>0.01005743579093132</v>
       </c>
       <c r="L151" t="n">
         <v>282550</v>
@@ -6965,7 +6965,7 @@
         <v>0.003099583244402959</v>
       </c>
       <c r="K152" t="n">
-        <v>0.01318810092744394</v>
+        <v>0.01318819289479345</v>
       </c>
       <c r="L152" t="n">
         <v>283535</v>
@@ -7009,7 +7009,7 @@
         <v>0.006529765503243246</v>
       </c>
       <c r="K153" t="n">
-        <v>0.01980398163717645</v>
+        <v>0.01980407420505115</v>
       </c>
       <c r="L153" t="n">
         <v>280605</v>
@@ -7018,7 +7018,7 @@
         <v>166.1283935546875</v>
       </c>
       <c r="N153" t="n">
-        <v>167.1179879760742</v>
+        <v>167.11798828125</v>
       </c>
     </row>
     <row r="154">
@@ -7053,7 +7053,7 @@
         <v>-0.002374899443720602</v>
       </c>
       <c r="K154" t="n">
-        <v>0.01738204972848223</v>
+        <v>0.01738214207651767</v>
       </c>
       <c r="L154" t="n">
         <v>263115</v>
@@ -7062,7 +7062,7 @@
         <v>166.6512107849121</v>
       </c>
       <c r="N154" t="n">
-        <v>167.1219161987305</v>
+        <v>167.1219165039062</v>
       </c>
     </row>
     <row r="155">
@@ -7097,7 +7097,7 @@
         <v>0.01143819948038605</v>
       </c>
       <c r="K155" t="n">
-        <v>0.02901906856104075</v>
+        <v>0.02901916196537124</v>
       </c>
       <c r="L155" t="n">
         <v>185270</v>
@@ -7141,7 +7141,7 @@
         <v>0.003386929131621752</v>
       </c>
       <c r="K156" t="n">
-        <v>0.03250428322134447</v>
+        <v>0.03250437694202879</v>
       </c>
       <c r="L156" t="n">
         <v>175060</v>
@@ -7185,7 +7185,7 @@
         <v>-0.008009551540542836</v>
       </c>
       <c r="K157" t="n">
-        <v>0.02423438694905178</v>
+        <v>0.02423447991907546</v>
       </c>
       <c r="L157" t="n">
         <v>156630</v>
@@ -7229,7 +7229,7 @@
         <v>0.0007497466946229103</v>
       </c>
       <c r="K158" t="n">
-        <v>0.02500230329518605</v>
+        <v>0.02500239633491352</v>
       </c>
       <c r="L158" t="n">
         <v>149580</v>
@@ -7273,7 +7273,7 @@
         <v>-0.006800403568068769</v>
       </c>
       <c r="K159" t="n">
-        <v>0.01803187397457884</v>
+        <v>0.01803196638159843</v>
       </c>
       <c r="L159" t="n">
         <v>155515</v>
@@ -7317,7 +7317,7 @@
         <v>-0.001798764011773368</v>
       </c>
       <c r="K160" t="n">
-        <v>0.01620067487683508</v>
+        <v>0.01620076711763629</v>
       </c>
       <c r="L160" t="n">
         <v>155270</v>
@@ -7361,7 +7361,7 @@
         <v>-0.004069027150220617</v>
       </c>
       <c r="K161" t="n">
-        <v>0.01206572674068873</v>
+        <v>0.01206581860615952</v>
       </c>
       <c r="L161" t="n">
         <v>158390</v>
@@ -7370,7 +7370,7 @@
         <v>169.8164169311523</v>
       </c>
       <c r="N161" t="n">
-        <v>167.5523028564453</v>
+        <v>167.5523025512695</v>
       </c>
     </row>
     <row r="162">
@@ -7405,7 +7405,7 @@
         <v>0.02206264516579792</v>
       </c>
       <c r="K162" t="n">
-        <v>0.03439457375423394</v>
+        <v>0.03439466764650012</v>
       </c>
       <c r="L162" t="n">
         <v>156445</v>
@@ -7414,7 +7414,7 @@
         <v>170.2220596313477</v>
       </c>
       <c r="N162" t="n">
-        <v>167.7206893920898</v>
+        <v>167.7206890869141</v>
       </c>
     </row>
     <row r="163">
@@ -7449,7 +7449,7 @@
         <v>0.01404840263171936</v>
       </c>
       <c r="K163" t="n">
-        <v>0.04892616520639903</v>
+        <v>0.04892626041770165</v>
       </c>
       <c r="L163" t="n">
         <v>157255</v>
@@ -7458,7 +7458,7 @@
         <v>170.6584861755371</v>
       </c>
       <c r="N163" t="n">
-        <v>168.0049700927734</v>
+        <v>168.0049697875976</v>
       </c>
     </row>
     <row r="164">
@@ -7493,7 +7493,7 @@
         <v>0.004617839851655869</v>
       </c>
       <c r="K164" t="n">
-        <v>0.05376993825353371</v>
+        <v>0.05377003390450685</v>
       </c>
       <c r="L164" t="n">
         <v>159435</v>
@@ -7502,7 +7502,7 @@
         <v>171.3322402954101</v>
       </c>
       <c r="N164" t="n">
-        <v>168.2487506103515</v>
+        <v>168.2487503051758</v>
       </c>
     </row>
     <row r="165">
@@ -7537,7 +7537,7 @@
         <v>0.002410502223280098</v>
       </c>
       <c r="K165" t="n">
-        <v>0.05631005303251957</v>
+        <v>0.05631014891405961</v>
       </c>
       <c r="L165" t="n">
         <v>162170</v>
@@ -7546,7 +7546,7 @@
         <v>171.8083869934082</v>
       </c>
       <c r="N165" t="n">
-        <v>168.4655807495117</v>
+        <v>168.4655804443359</v>
       </c>
     </row>
     <row r="166">
@@ -7581,7 +7581,7 @@
         <v>-0.01867805980192971</v>
       </c>
       <c r="K166" t="n">
-        <v>0.03658023069259864</v>
+        <v>0.03658032478325746</v>
       </c>
       <c r="L166" t="n">
         <v>158995</v>
@@ -7590,7 +7590,7 @@
         <v>172.0889114379883</v>
       </c>
       <c r="N166" t="n">
-        <v>168.6432873535156</v>
+        <v>168.6432867431641</v>
       </c>
     </row>
     <row r="167">
@@ -7625,7 +7625,7 @@
         <v>-0.01379075665183249</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0222850049810166</v>
+        <v>0.02228509777409404</v>
       </c>
       <c r="L167" t="n">
         <v>161355</v>
@@ -7634,7 +7634,7 @@
         <v>172.2408409118652</v>
       </c>
       <c r="N167" t="n">
-        <v>168.7865368652344</v>
+        <v>168.7865365600586</v>
       </c>
     </row>
     <row r="168">
@@ -7669,7 +7669,7 @@
         <v>0.01178787524967073</v>
       </c>
       <c r="K168" t="n">
-        <v>0.03433557308934176</v>
+        <v>0.03433566697625245</v>
       </c>
       <c r="L168" t="n">
         <v>164445</v>
@@ -7678,7 +7678,7 @@
         <v>172.5263298034668</v>
       </c>
       <c r="N168" t="n">
-        <v>168.9598513793945</v>
+        <v>168.9598510742188</v>
       </c>
     </row>
     <row r="169">
@@ -7713,7 +7713,7 @@
         <v>0.008966227044726383</v>
       </c>
       <c r="K169" t="n">
-        <v>0.04360966067809802</v>
+        <v>0.04360975540681999</v>
       </c>
       <c r="L169" t="n">
         <v>164765</v>
@@ -7722,7 +7722,7 @@
         <v>172.8291961669922</v>
       </c>
       <c r="N169" t="n">
-        <v>169.1008569335937</v>
+        <v>169.100856628418</v>
       </c>
     </row>
     <row r="170">
@@ -7757,7 +7757,7 @@
         <v>-0.01511289858936016</v>
       </c>
       <c r="K170" t="n">
-        <v>0.02783769370939337</v>
+        <v>0.02783778700648987</v>
       </c>
       <c r="L170" t="n">
         <v>166560</v>
@@ -7766,7 +7766,7 @@
         <v>172.940909576416</v>
       </c>
       <c r="N170" t="n">
-        <v>169.1726681518555</v>
+        <v>169.1726678466797</v>
       </c>
     </row>
     <row r="171">
@@ -7801,7 +7801,7 @@
         <v>0.007931111100906163</v>
       </c>
       <c r="K171" t="n">
-        <v>0.03598958865190172</v>
+        <v>0.03598968268894787</v>
       </c>
       <c r="L171" t="n">
         <v>165785</v>
@@ -7810,7 +7810,7 @@
         <v>173.1588745117188</v>
       </c>
       <c r="N171" t="n">
-        <v>169.2955471801758</v>
+        <v>169.2955465698242</v>
       </c>
     </row>
     <row r="172">
@@ -7845,7 +7845,7 @@
         <v>0.009008950597705345</v>
       </c>
       <c r="K172" t="n">
-        <v>0.04532276767580368</v>
+        <v>0.04532286256002505</v>
       </c>
       <c r="L172" t="n">
         <v>167640</v>
@@ -7854,7 +7854,7 @@
         <v>173.428971862793</v>
       </c>
       <c r="N172" t="n">
-        <v>169.4395516967774</v>
+        <v>169.4395513916016</v>
       </c>
     </row>
     <row r="173">
@@ -7889,7 +7889,7 @@
         <v>0.003164602577704345</v>
       </c>
       <c r="K173" t="n">
-        <v>0.04863079880092358</v>
+        <v>0.04863089398541587</v>
       </c>
       <c r="L173" t="n">
         <v>169165</v>
@@ -7933,7 +7933,7 @@
         <v>0.002084209400115</v>
       </c>
       <c r="K174" t="n">
-        <v>0.05081636496903452</v>
+        <v>0.05081646035191123</v>
       </c>
       <c r="L174" t="n">
         <v>174675</v>
@@ -7977,7 +7977,7 @@
         <v>-0.0165832804971382</v>
       </c>
       <c r="K175" t="n">
-        <v>0.03339038243776993</v>
+        <v>0.03339047623888569</v>
       </c>
       <c r="L175" t="n">
         <v>175325</v>
@@ -8021,7 +8021,7 @@
         <v>-0.001543389753300928</v>
       </c>
       <c r="K176" t="n">
-        <v>0.03179545831035568</v>
+        <v>0.03179555196669992</v>
       </c>
       <c r="L176" t="n">
         <v>179250</v>
@@ -8065,7 +8065,7 @@
         <v>0.003606809470481087</v>
       </c>
       <c r="K177" t="n">
-        <v>0.03551694794098892</v>
+        <v>0.03551704193513361</v>
       </c>
       <c r="L177" t="n">
         <v>178935</v>
@@ -8109,7 +8109,7 @@
         <v>-0.004962960995551491</v>
       </c>
       <c r="K178" t="n">
-        <v>0.03037771771812525</v>
+        <v>0.03037781124578065</v>
       </c>
       <c r="L178" t="n">
         <v>194415</v>
@@ -8153,7 +8153,7 @@
         <v>0.002923844982126056</v>
       </c>
       <c r="K179" t="n">
-        <v>0.03339038243776993</v>
+        <v>0.03339047623888569</v>
       </c>
       <c r="L179" t="n">
         <v>215465</v>
@@ -8197,7 +8197,7 @@
         <v>0.001543389753301039</v>
       </c>
       <c r="K180" t="n">
-        <v>0.03498530656518417</v>
+        <v>0.03498540051107168</v>
       </c>
       <c r="L180" t="n">
         <v>210635</v>
@@ -8241,7 +8241,7 @@
         <v>0.01130075006235609</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0466814168328884</v>
+        <v>0.0466815118404349</v>
       </c>
       <c r="L181" t="n">
         <v>206150</v>
@@ -8285,7 +8285,7 @@
         <v>-0.006433814761567569</v>
       </c>
       <c r="K182" t="n">
-        <v>0.03994726248261049</v>
+        <v>0.03994735687889595</v>
       </c>
       <c r="L182" t="n">
         <v>203265</v>
@@ -8329,7 +8329,7 @@
         <v>-0.004771353410345958</v>
       </c>
       <c r="K183" t="n">
-        <v>0.03498530656518417</v>
+        <v>0.03498540051107146</v>
       </c>
       <c r="L183" t="n">
         <v>202650</v>
@@ -8373,7 +8373,7 @@
         <v>-0.007248392685936023</v>
       </c>
       <c r="K184" t="n">
-        <v>0.02748332663902575</v>
+        <v>0.02748341990395642</v>
       </c>
       <c r="L184" t="n">
         <v>199275</v>
@@ -8417,7 +8417,7 @@
         <v>0.002989503873103594</v>
       </c>
       <c r="K185" t="n">
-        <v>0.03055499202356238</v>
+        <v>0.03055508556730913</v>
       </c>
       <c r="L185" t="n">
         <v>197370</v>
@@ -8461,7 +8461,7 @@
         <v>0.001604975547507825</v>
       </c>
       <c r="K186" t="n">
-        <v>0.03220900758612233</v>
+        <v>0.03220910128000454</v>
       </c>
       <c r="L186" t="n">
         <v>201180</v>
@@ -8505,7 +8505,7 @@
         <v>0.01293346111290994</v>
       </c>
       <c r="K187" t="n">
-        <v>0.04555904264613275</v>
+        <v>0.04555913755180119</v>
       </c>
       <c r="L187" t="n">
         <v>199190</v>
@@ -8549,7 +8549,7 @@
         <v>0.003898342709502733</v>
       </c>
       <c r="K188" t="n">
-        <v>0.04963499011738692</v>
+        <v>0.0496350853930303</v>
       </c>
       <c r="L188" t="n">
         <v>199695</v>
@@ -8593,7 +8593,7 @@
         <v>-0.01350672733381209</v>
       </c>
       <c r="K189" t="n">
-        <v>0.03545785650584277</v>
+        <v>0.03545795049462397</v>
       </c>
       <c r="L189" t="n">
         <v>201520</v>
@@ -8637,7 +8637,7 @@
         <v>0.007962597802244842</v>
       </c>
       <c r="K190" t="n">
-        <v>0.04370279095837337</v>
+        <v>0.04370288569554948</v>
       </c>
       <c r="L190" t="n">
         <v>208320</v>
@@ -8681,7 +8681,7 @@
         <v>0.002336869018187082</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0461417876747594</v>
+        <v>0.04614188263332375</v>
       </c>
       <c r="L191" t="n">
         <v>210020</v>
@@ -8725,7 +8725,7 @@
         <v>0.003696087195658171</v>
       </c>
       <c r="K192" t="n">
-        <v>0.05000841894102703</v>
+        <v>0.0500085142505664</v>
       </c>
       <c r="L192" t="n">
         <v>217885</v>
@@ -8769,7 +8769,7 @@
         <v>0.002776077890281003</v>
       </c>
       <c r="K193" t="n">
-        <v>0.05292332409745804</v>
+        <v>0.0529234196715842</v>
       </c>
       <c r="L193" t="n">
         <v>218030</v>
@@ -8813,7 +8813,7 @@
         <v>-0.007796637756002811</v>
       </c>
       <c r="K194" t="n">
-        <v>0.04471406235462383</v>
+        <v>0.04471415718359317</v>
       </c>
       <c r="L194" t="n">
         <v>214810</v>
@@ -8857,7 +8857,7 @@
         <v>0.007687086556486866</v>
       </c>
       <c r="K195" t="n">
-        <v>0.05274486977872295</v>
+        <v>0.05274496533665074</v>
       </c>
       <c r="L195" t="n">
         <v>210285</v>
@@ -8901,7 +8901,7 @@
         <v>0.001130117798850971</v>
       </c>
       <c r="K196" t="n">
-        <v>0.05393459549370894</v>
+        <v>0.05393469115962835</v>
       </c>
       <c r="L196" t="n">
         <v>211700</v>
@@ -8945,7 +8945,7 @@
         <v>-0.009877518869369939</v>
       </c>
       <c r="K197" t="n">
-        <v>0.04352433663963806</v>
+        <v>0.04352443136061557</v>
       </c>
       <c r="L197" t="n">
         <v>213795</v>
@@ -8989,7 +8989,7 @@
         <v>0.009063939998216863</v>
       </c>
       <c r="K198" t="n">
-        <v>0.05298277861361878</v>
+        <v>0.05298287419314152</v>
       </c>
       <c r="L198" t="n">
         <v>196085</v>
@@ -9033,7 +9033,7 @@
         <v>0.007061748142993762</v>
       </c>
       <c r="K199" t="n">
-        <v>0.06041867779509791</v>
+        <v>0.06041877404957918</v>
       </c>
       <c r="L199" t="n">
         <v>167835</v>
@@ -9077,7 +9077,7 @@
         <v>-0.001234159247630262</v>
       </c>
       <c r="K200" t="n">
-        <v>0.05910995227753713</v>
+        <v>0.0591100484132252</v>
       </c>
       <c r="L200" t="n">
         <v>165910</v>
@@ -9121,7 +9121,7 @@
         <v>0.005111231725598131</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0645233086665149</v>
+        <v>0.06452340529357459</v>
       </c>
       <c r="L201" t="n">
         <v>167310</v>
@@ -9165,7 +9165,7 @@
         <v>-0.01028218144324866</v>
       </c>
       <c r="K202" t="n">
-        <v>0.05357768685623832</v>
+        <v>0.05357778248976119</v>
       </c>
       <c r="L202" t="n">
         <v>170335</v>
@@ -9209,7 +9209,7 @@
         <v>0.001016276185201059</v>
       </c>
       <c r="K203" t="n">
-        <v>0.05464841276864951</v>
+        <v>0.05464850849936242</v>
       </c>
       <c r="L203" t="n">
         <v>168500</v>
@@ -9253,7 +9253,7 @@
         <v>0.003553527591349859</v>
       </c>
       <c r="K204" t="n">
-        <v>0.05839613500259633</v>
+        <v>0.0583962310734909</v>
       </c>
       <c r="L204" t="n">
         <v>169225</v>
@@ -9297,7 +9297,7 @@
         <v>0.0178732462190716</v>
       </c>
       <c r="K205" t="n">
-        <v>0.07731310972081151</v>
+        <v>0.07731320750880477</v>
       </c>
       <c r="L205" t="n">
         <v>171065</v>
@@ -9341,7 +9341,7 @@
         <v>0.00270563345036523</v>
       </c>
       <c r="K206" t="n">
-        <v>0.0802279241069892</v>
+        <v>0.08022802215956082</v>
       </c>
       <c r="L206" t="n">
         <v>169525</v>
@@ -9385,7 +9385,7 @@
         <v>0.01194998740408315</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09313663419360663</v>
+        <v>0.09313673341790518</v>
       </c>
       <c r="L207" t="n">
         <v>171200</v>
@@ -9429,7 +9429,7 @@
         <v>-0.006747879143677693</v>
       </c>
       <c r="K208" t="n">
-        <v>0.08576028029854155</v>
+        <v>0.08576037885328658</v>
       </c>
       <c r="L208" t="n">
         <v>174825</v>
@@ -9473,7 +9473,7 @@
         <v>-0.001588913752647914</v>
       </c>
       <c r="K209" t="n">
-        <v>0.08403510085709631</v>
+        <v>0.08403519925524638</v>
       </c>
       <c r="L209" t="n">
         <v>182130</v>
@@ -9517,7 +9517,7 @@
         <v>0.002359698977402402</v>
       </c>
       <c r="K210" t="n">
-        <v>0.08659309737605714</v>
+        <v>0.08659319600639726</v>
       </c>
       <c r="L210" t="n">
         <v>173340</v>
@@ -9561,7 +9561,7 @@
         <v>-0.009690157872410565</v>
       </c>
       <c r="K211" t="n">
-        <v>0.07606383871941147</v>
+        <v>0.0760639363940081</v>
       </c>
       <c r="L211" t="n">
         <v>173050</v>
@@ -9605,7 +9605,7 @@
         <v>0.0104483354305136</v>
       </c>
       <c r="K212" t="n">
-        <v>0.08730691465099794</v>
+        <v>0.08730701334613156</v>
       </c>
       <c r="L212" t="n">
         <v>163740</v>
@@ -9649,7 +9649,7 @@
         <v>0.007221836814938598</v>
       </c>
       <c r="K213" t="n">
-        <v>0.09515926775636174</v>
+        <v>0.09515936716425566</v>
       </c>
       <c r="L213" t="n">
         <v>166695</v>
@@ -9693,7 +9693,7 @@
         <v>0.006192283280031186</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1019408041790606</v>
+        <v>0.1019409042025163</v>
       </c>
       <c r="L214" t="n">
         <v>170580</v>
@@ -9737,7 +9737,7 @@
         <v>0.0003238909350817831</v>
       </c>
       <c r="K215" t="n">
-        <v>0.102297712816531</v>
+        <v>0.1022978128723833</v>
       </c>
       <c r="L215" t="n">
         <v>183090</v>
@@ -9781,7 +9781,7 @@
         <v>0.01786291151689401</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1219879593258473</v>
+        <v>0.1219880611689885</v>
       </c>
       <c r="L216" t="n">
         <v>188170</v>
@@ -9825,7 +9825,7 @@
         <v>-0.009914612751901308</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1108638831968356</v>
+        <v>0.1108639840302414</v>
       </c>
       <c r="L217" t="n">
         <v>195615</v>
@@ -9869,7 +9869,7 @@
         <v>-0.008139682059271292</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1018218043764858</v>
+        <v>0.10182190438914</v>
       </c>
       <c r="L218" t="n">
         <v>203335</v>
@@ -9913,7 +9913,7 @@
         <v>0.009772149587867762</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1125889718680273</v>
+        <v>0.1125890728580199</v>
       </c>
       <c r="L219" t="n">
         <v>209610</v>
@@ -9957,7 +9957,7 @@
         <v>-0.004010051889510202</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1081274323591397</v>
+        <v>0.1081275329441571</v>
       </c>
       <c r="L220" t="n">
         <v>218315</v>
@@ -10001,7 +10001,7 @@
         <v>-0.002845172765567838</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1049746183678129</v>
+        <v>0.1049747186666485</v>
       </c>
       <c r="L221" t="n">
         <v>222245</v>
@@ -10045,7 +10045,7 @@
         <v>0.004629882155324783</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1100905206354807</v>
+        <v>0.1100906213986883</v>
       </c>
       <c r="L222" t="n">
         <v>220315</v>
@@ -10089,7 +10089,7 @@
         <v>0.002465069998192071</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1128269714731767</v>
+        <v>0.1128270724847726</v>
       </c>
       <c r="L223" t="n">
         <v>224880</v>
@@ -10133,7 +10133,7 @@
         <v>-0.006842433249427793</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1052125272027085</v>
+        <v>0.1052126275231395</v>
       </c>
       <c r="L224" t="n">
         <v>224455</v>
@@ -10177,7 +10177,7 @@
         <v>-0.003067937381061481</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1018218043764858</v>
+        <v>0.1018219043891402</v>
       </c>
       <c r="L225" t="n">
         <v>226905</v>
@@ -10221,7 +10221,7 @@
         <v>-0.004805093314884212</v>
       </c>
       <c r="K226" t="n">
-        <v>0.0965274477900826</v>
+        <v>0.09652754732216695</v>
       </c>
       <c r="L226" t="n">
         <v>225895</v>
@@ -10265,7 +10265,7 @@
         <v>0.009602366705791177</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1070567064467283</v>
+        <v>0.1070568069345561</v>
       </c>
       <c r="L227" t="n">
         <v>223905</v>
@@ -10309,7 +10309,7 @@
         <v>0.0007522804140616124</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1078895235242436</v>
+        <v>0.1078896240876666</v>
       </c>
       <c r="L228" t="n">
         <v>217975</v>
@@ -10353,7 +10353,7 @@
         <v>-0.006389617731459629</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1008105329802347</v>
+        <v>0.1008106329010958</v>
       </c>
       <c r="L229" t="n">
         <v>207775</v>
@@ -10397,7 +10397,7 @@
         <v>0.005944289795114965</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1073540697977842</v>
+        <v>0.1073541703126037</v>
       </c>
       <c r="L230" t="n">
         <v>207610</v>
@@ -10441,7 +10441,7 @@
         <v>-0.01095886840193627</v>
       </c>
       <c r="K231" t="n">
-        <v>0.09521872227252159</v>
+        <v>0.09521882168581253</v>
       </c>
       <c r="L231" t="n">
         <v>208975</v>
@@ -10485,7 +10485,7 @@
         <v>0.002009641605349666</v>
       </c>
       <c r="K232" t="n">
-        <v>0.09741971938375826</v>
+        <v>0.09741981899683427</v>
       </c>
       <c r="L232" t="n">
         <v>207840</v>
@@ -10529,7 +10529,7 @@
         <v>0.001734645119416456</v>
       </c>
       <c r="K233" t="n">
-        <v>0.09932335314393859</v>
+        <v>0.09932345292980793</v>
       </c>
       <c r="L233" t="n">
         <v>202695</v>
@@ -10573,7 +10573,7 @@
         <v>-0.006926400206489047</v>
       </c>
       <c r="K234" t="n">
-        <v>0.09170899964372414</v>
+        <v>0.09170909873843658</v>
       </c>
       <c r="L234" t="n">
         <v>198725</v>
@@ -10617,7 +10617,7 @@
         <v>-0.004522677701240818</v>
       </c>
       <c r="K235" t="n">
-        <v>0.08677155169479156</v>
+        <v>0.0867716503413305</v>
       </c>
       <c r="L235" t="n">
         <v>189165</v>
@@ -10661,7 +10661,7 @@
         <v>-0.003393700305994285</v>
       </c>
       <c r="K236" t="n">
-        <v>0.08308337474725902</v>
+        <v>0.08308347305902131</v>
       </c>
       <c r="L236" t="n">
         <v>182750</v>
@@ -10705,7 +10705,7 @@
         <v>-0.001812499685722724</v>
       </c>
       <c r="K237" t="n">
-        <v>0.08112028647091818</v>
+        <v>0.08112038460449034</v>
       </c>
       <c r="L237" t="n">
         <v>172580</v>
@@ -10749,7 +10749,7 @@
         <v>-0.001430668855321393</v>
       </c>
       <c r="K238" t="n">
-        <v>0.07957356134820803</v>
+        <v>0.07957365934138361</v>
       </c>
       <c r="L238" t="n">
         <v>165890</v>
@@ -10793,7 +10793,7 @@
         <v>-0.002259138268527638</v>
       </c>
       <c r="K239" t="n">
-        <v>0.07713465540207554</v>
+        <v>0.07713475317387108</v>
       </c>
       <c r="L239" t="n">
         <v>161320</v>
@@ -10837,7 +10837,7 @@
         <v>-0.01054842649169041</v>
       </c>
       <c r="K240" t="n">
-        <v>0.0657725796679145</v>
+        <v>0.06577267640837148</v>
       </c>
       <c r="L240" t="n">
         <v>159990</v>
@@ -10881,7 +10881,7 @@
         <v>0.007032789021439445</v>
       </c>
       <c r="K241" t="n">
-        <v>0.07326793336555415</v>
+        <v>0.07326803078636646</v>
       </c>
       <c r="L241" t="n">
         <v>154815</v>
@@ -10925,7 +10925,7 @@
         <v>0.0154084846885636</v>
       </c>
       <c r="K242" t="n">
-        <v>0.0898053658835436</v>
+        <v>0.08980546480546292</v>
       </c>
       <c r="L242" t="n">
         <v>158840</v>
@@ -10969,7 +10969,7 @@
         <v>0.005949761768820228</v>
       </c>
       <c r="K243" t="n">
-        <v>0.09628944818493257</v>
+        <v>0.09628954769541376</v>
       </c>
       <c r="L243" t="n">
         <v>157475</v>
@@ -11013,7 +11013,7 @@
         <v>0.004775109419241197</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1015243502551753</v>
+        <v>0.1015244502408299</v>
       </c>
       <c r="L244" t="n">
         <v>158065</v>
@@ -11057,7 +11057,7 @@
         <v>0.003132266764540814</v>
       </c>
       <c r="K245" t="n">
-        <v>0.104974618367812</v>
+        <v>0.1049747186666483</v>
       </c>
       <c r="L245" t="n">
         <v>165495</v>
@@ -11101,7 +11101,7 @@
         <v>-0.01749663526244949</v>
       </c>
       <c r="K246" t="n">
-        <v>0.08564128049596609</v>
+        <v>0.0856413790399102</v>
       </c>
       <c r="L246" t="n">
         <v>168835</v>
@@ -11145,7 +11145,7 @@
         <v>0.00317809222495713</v>
       </c>
       <c r="K247" t="n">
-        <v>0.0890915486086028</v>
+        <v>0.08909164746572862</v>
       </c>
       <c r="L247" t="n">
         <v>169320</v>
@@ -11189,7 +11189,7 @@
         <v>0.001529379377848361</v>
       </c>
       <c r="K248" t="n">
-        <v>0.09075718276363376</v>
+        <v>0.09075728177194953</v>
       </c>
       <c r="L248" t="n">
         <v>171380</v>
@@ -11233,7 +11233,7 @@
         <v>0.008453332496718424</v>
       </c>
       <c r="K249" t="n">
-        <v>0.09997771590271864</v>
+        <v>0.0999778157479847</v>
       </c>
       <c r="L249" t="n">
         <v>171005</v>
@@ -11277,7 +11277,7 @@
         <v>0.008598757808669255</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1094361578766994</v>
+        <v>0.1094362585805106</v>
       </c>
       <c r="L250" t="n">
         <v>172840</v>
@@ -11297,16 +11297,16 @@
         <v>186.1999969482422</v>
       </c>
       <c r="C251" t="n">
-        <v>187.8220062255859</v>
+        <v>187.8200073242188</v>
       </c>
       <c r="D251" t="n">
-        <v>185.9149932861328</v>
+        <v>185.9199981689453</v>
       </c>
       <c r="E251" t="n">
         <v>187.5099945068359</v>
       </c>
       <c r="F251" t="n">
-        <v>165107</v>
+        <v>166400</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -11321,10 +11321,10 @@
         <v>0.005415520143892349</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1154443317380431</v>
+        <v>0.115444432987218</v>
       </c>
       <c r="L251" t="n">
-        <v>172215.35</v>
+        <v>172280</v>
       </c>
       <c r="M251" t="n">
         <v>183.3850006103516</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165107</v>
+        <v>166400</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
